--- a/SplitLoanModelling.xlsx
+++ b/SplitLoanModelling.xlsx
@@ -851,7 +851,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-C09]* #,##0.00_-;\-[$$-C09]* #,##0.00_-;_-[$$-C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1158,17 +1158,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,6 +1171,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:Y85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,10 +1495,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="65"/>
+      <c r="B1" s="62"/>
       <c r="D1" s="38" t="s">
         <v>1</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>500000</v>
       </c>
       <c r="K2" s="25">
-        <f>IF(G2&gt;0,G2*((1+IF($B$11&gt;0,$B$11,F2)/100/365)^(365*YEARFRAC(D2,D3))-1),0)</f>
+        <f t="shared" ref="K2:K33" si="0">IF(G2&gt;0,G2*((1+IF($B$11&gt;0,$B$11,F2)/100/365)^(365*YEARFRAC(D2,D3))-1),0)</f>
         <v>2506.1571806609395</v>
       </c>
       <c r="L2" s="25">
@@ -1586,13 +1586,13 @@
         <v>1861.9082649451448</v>
       </c>
       <c r="M2" s="26">
-        <f>IF(YEARFRAC($B$7,D2)&lt;$B$10,
+        <f t="shared" ref="M2:M33" si="1">IF(YEARFRAC($B$7,D2)&lt;$B$10,
        (I2+MIN(0,MAX(-$B$13,H2)))*((1+$B$32/100/365)^(365*YEARFRAC(D2,D3))-1),
        0)</f>
         <v>1110.0611107468628</v>
       </c>
       <c r="N2" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D2)&gt;=$B$10,J2,H2)*((1+IF($B$11&gt;0,$B$11,F2)/100/365)^(365*YEARFRAC(D2,D3))-1)&gt;0,
+        <f t="shared" ref="N2:N33" si="2">IF(IF(YEARFRAC($B$7,D2)&gt;=$B$10,J2,H2)*((1+IF($B$11&gt;0,$B$11,F2)/100/365)^(365*YEARFRAC(D2,D3))-1)&gt;0,
 IF(YEARFRAC($B$7,D2)&gt;=$B$10,J2,H2)*((1+IF($B$11&gt;0,$B$11,F2)/100/365)^(365*YEARFRAC(D2,D3))-1),
 0)</f>
         <v>751.84715419828183</v>
@@ -1633,37 +1633,33 @@
         <v>482589.49051399424</v>
       </c>
       <c r="H3" s="24">
-        <f>IF(J2&gt;0,
+        <f t="shared" ref="H3:H34" si="3">IF(J2&gt;0,
       IF(YEARFRAC($B$7,D2)&gt;=$B$10,J2,H2)+N2+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D2)))*E2+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D2))))*YEARFRAC(D2,D3)+(YEARFRAC($B$7,D2)&lt;=$B$10)*$B$33*YEARFRAC(D2,D3),
       0)</f>
         <v>131047.88649035766</v>
       </c>
       <c r="I3" s="24">
-        <f>IF(YEARFRAC($B$7,D2)&lt;$B$10,I2+M2-$B$33*YEARFRAC(D2,D3)*12, 0)</f>
+        <f t="shared" ref="I3:I34" si="4">IF(YEARFRAC($B$7,D2)&lt;$B$10,I2+M2-$B$33*YEARFRAC(D2,D3)*12, 0)</f>
         <v>348557.58907683432</v>
       </c>
       <c r="J3" s="24">
-        <f t="shared" ref="J3:J40" si="0">IF(H3+I3&gt;0, H3+I3,0)</f>
+        <f t="shared" ref="J3:J40" si="5">IF(H3+I3&gt;0, H3+I3,0)</f>
         <v>479605.47556719196</v>
       </c>
       <c r="K3" s="25">
-        <f>IF(G3&gt;0,G3*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4))-1),0)</f>
+        <f t="shared" si="0"/>
         <v>2418.8902339263022</v>
       </c>
       <c r="L3" s="25">
-        <f t="shared" ref="L3:L40" si="1">SUM(M3:N3)</f>
+        <f t="shared" ref="L3:L40" si="6">SUM(M3:N3)</f>
         <v>1762.3395591618685</v>
       </c>
       <c r="M3" s="26">
-        <f>IF(YEARFRAC($B$7,D3)&lt;$B$10,
-       (I3+MIN(0,MAX(-$B$13,H3)))*((1+$B$32/100/365)^(365*YEARFRAC(D3,D4))-1),
-       0)</f>
+        <f t="shared" si="1"/>
         <v>1105.4863556853693</v>
       </c>
       <c r="N3" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D3)&gt;=$B$10,J3,H3)*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4))-1)&gt;0,
-IF(YEARFRAC($B$7,D3)&gt;=$B$10,J3,H3)*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>656.85320347649917</v>
       </c>
       <c r="O3" s="2"/>
@@ -1686,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <f t="shared" ref="D4:D67" si="2">EDATE(D3,$B$14)</f>
+        <f t="shared" ref="D4:D67" si="7">EDATE(D3,$B$14)</f>
         <v>44470</v>
       </c>
       <c r="E4" s="23">
@@ -1696,43 +1692,37 @@
         <v>3</v>
       </c>
       <c r="G4" s="58">
-        <f t="shared" ref="G4:G67" si="3">IF(G3*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3)))*E3+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3))))*YEARFRAC(D3,D4)&gt;0,
+        <f t="shared" ref="G4:G67" si="8">IF(G3*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3)))*E3+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3))))*YEARFRAC(D3,D4)&gt;0,
        G3*((1+IF($B$11&gt;0,$B$11,F3)/100/365)^(365*YEARFRAC(D3,D4)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3)))*E3+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3))))*YEARFRAC(D3,D4),
         0)</f>
         <v>465091.71408125386</v>
       </c>
       <c r="H4" s="24">
-        <f>IF(J3&gt;0,
-      IF(YEARFRAC($B$7,D3)&gt;=$B$10,J3,H3)+N3+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3)))*E3+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D3))))*YEARFRAC(D3,D4)+(YEARFRAC($B$7,D3)&lt;=$B$10)*$B$33*YEARFRAC(D3,D4),
-      0)</f>
+        <f t="shared" si="3"/>
         <v>112000.77902999354</v>
       </c>
       <c r="I4" s="24">
-        <f>IF(YEARFRAC($B$7,D3)&lt;$B$10,I3+M3-$B$33*YEARFRAC(D3,D4)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>347110.60339860717</v>
       </c>
       <c r="J4" s="24">
+        <f t="shared" si="5"/>
+        <v>459111.38242860069</v>
+      </c>
+      <c r="K4" s="25">
         <f t="shared" si="0"/>
-        <v>459111.38242860069</v>
-      </c>
-      <c r="K4" s="25">
-        <f>IF(G4&gt;0,G4*((1+IF($B$11&gt;0,$B$11,F4)/100/365)^(365*YEARFRAC(D4,D5))-1),0)</f>
         <v>2331.1858778212777</v>
       </c>
       <c r="L4" s="25">
+        <f t="shared" si="6"/>
+        <v>1662.2802045274798</v>
+      </c>
+      <c r="M4" s="26">
         <f t="shared" si="1"/>
-        <v>1662.2802045274798</v>
-      </c>
-      <c r="M4" s="26">
-        <f>IF(YEARFRAC($B$7,D4)&lt;$B$10,
-       (I4+MIN(0,MAX(-$B$13,H4)))*((1+$B$32/100/365)^(365*YEARFRAC(D4,D5))-1),
-       0)</f>
         <v>1100.8970913162048</v>
       </c>
       <c r="N4" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D4)&gt;=$B$10,J4,H4)*((1+IF($B$11&gt;0,$B$11,F4)/100/365)^(365*YEARFRAC(D4,D5))-1)&gt;0,
-IF(YEARFRAC($B$7,D4)&gt;=$B$10,J4,H4)*((1+IF($B$11&gt;0,$B$11,F4)/100/365)^(365*YEARFRAC(D4,D5))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>561.38311321127503</v>
       </c>
       <c r="O4" s="2"/>
@@ -1755,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44531</v>
       </c>
       <c r="E5" s="23">
@@ -1765,41 +1755,35 @@
         <v>3.25</v>
       </c>
       <c r="G5" s="58">
+        <f t="shared" si="8"/>
+        <v>447506.23329240846</v>
+      </c>
+      <c r="H5" s="24">
         <f t="shared" si="3"/>
-        <v>447506.23329240846</v>
-      </c>
-      <c r="H5" s="24">
-        <f>IF(J4&gt;0,
-      IF(YEARFRAC($B$7,D4)&gt;=$B$10,J4,H4)+N4+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D4)))*E4+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D4))))*YEARFRAC(D4,D5)+(YEARFRAC($B$7,D4)&lt;=$B$10)*$B$33*YEARFRAC(D4,D5),
-      0)</f>
         <v>92858.201479364187</v>
       </c>
       <c r="I5" s="24">
-        <f>IF(YEARFRAC($B$7,D4)&lt;$B$10,I4+M4-$B$33*YEARFRAC(D4,D5)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>345659.02845601086</v>
       </c>
       <c r="J5" s="24">
+        <f t="shared" si="5"/>
+        <v>438517.22993537504</v>
+      </c>
+      <c r="K5" s="25">
         <f t="shared" si="0"/>
-        <v>438517.22993537504</v>
-      </c>
-      <c r="K5" s="25">
-        <f>IF(G5&gt;0,G5*((1+IF($B$11&gt;0,$B$11,F5)/100/365)^(365*YEARFRAC(D5,D6))-1),0)</f>
         <v>2243.0419199125981</v>
       </c>
       <c r="L5" s="25">
+        <f t="shared" si="6"/>
+        <v>1561.7277684631399</v>
+      </c>
+      <c r="M5" s="26">
         <f t="shared" si="1"/>
-        <v>1561.7277684631399</v>
-      </c>
-      <c r="M5" s="26">
-        <f>IF(YEARFRAC($B$7,D5)&lt;$B$10,
-       (I5+MIN(0,MAX(-$B$13,H5)))*((1+$B$32/100/365)^(365*YEARFRAC(D5,D6))-1),
-       0)</f>
         <v>1096.2932716216023</v>
       </c>
       <c r="N5" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D5)&gt;=$B$10,J5,H5)*((1+IF($B$11&gt;0,$B$11,F5)/100/365)^(365*YEARFRAC(D5,D6))-1)&gt;0,
-IF(YEARFRAC($B$7,D5)&gt;=$B$10,J5,H5)*((1+IF($B$11&gt;0,$B$11,F5)/100/365)^(365*YEARFRAC(D5,D6))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>465.43449684153768</v>
       </c>
       <c r="O5" s="2"/>
@@ -1822,7 +1806,7 @@
         <v>500</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44593</v>
       </c>
       <c r="E6" s="23">
@@ -1832,41 +1816,35 @@
         <v>3.25</v>
       </c>
       <c r="G6" s="58">
+        <f t="shared" si="8"/>
+        <v>429832.6085456544</v>
+      </c>
+      <c r="H6" s="24">
         <f t="shared" si="3"/>
-        <v>429832.6085456544</v>
-      </c>
-      <c r="H6" s="24">
-        <f>IF(J5&gt;0,
-      IF(YEARFRAC($B$7,D5)&gt;=$B$10,J5,H5)+N5+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D5)))*E5+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D5))))*YEARFRAC(D5,D6)+(YEARFRAC($B$7,D5)&lt;=$B$10)*$B$33*YEARFRAC(D5,D6),
-      0)</f>
         <v>73619.675312365114</v>
       </c>
       <c r="I6" s="24">
-        <f>IF(YEARFRAC($B$7,D5)&lt;$B$10,I5+M5-$B$33*YEARFRAC(D5,D6)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>344202.84969371994</v>
       </c>
       <c r="J6" s="24">
+        <f t="shared" si="5"/>
+        <v>417822.52500608505</v>
+      </c>
+      <c r="K6" s="25">
         <f t="shared" si="0"/>
-        <v>417822.52500608505</v>
-      </c>
-      <c r="K6" s="25">
-        <f>IF(G6&gt;0,G6*((1+IF($B$11&gt;0,$B$11,F6)/100/365)^(365*YEARFRAC(D6,D7))-1),0)</f>
         <v>2154.4561567778292</v>
       </c>
       <c r="L6" s="25">
+        <f t="shared" si="6"/>
+        <v>1460.6798062818677</v>
+      </c>
+      <c r="M6" s="26">
         <f t="shared" si="1"/>
-        <v>1460.6798062818677</v>
-      </c>
-      <c r="M6" s="26">
-        <f>IF(YEARFRAC($B$7,D6)&lt;$B$10,
-       (I6+MIN(0,MAX(-$B$13,H6)))*((1+$B$32/100/365)^(365*YEARFRAC(D6,D7))-1),
-       0)</f>
         <v>1091.6748504378463</v>
       </c>
       <c r="N6" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D6)&gt;=$B$10,J6,H6)*((1+IF($B$11&gt;0,$B$11,F6)/100/365)^(365*YEARFRAC(D6,D7))-1)&gt;0,
-IF(YEARFRAC($B$7,D6)&gt;=$B$10,J6,H6)*((1+IF($B$11&gt;0,$B$11,F6)/100/365)^(365*YEARFRAC(D6,D7))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>369.00495584402142</v>
       </c>
       <c r="O6" s="2"/>
@@ -1889,7 +1867,7 @@
         <v>44348</v>
       </c>
       <c r="D7" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44652</v>
       </c>
       <c r="E7" s="23">
@@ -1899,41 +1877,35 @@
         <v>3.25</v>
       </c>
       <c r="G7" s="58">
+        <f t="shared" si="8"/>
+        <v>412070.39803576551</v>
+      </c>
+      <c r="H7" s="24">
         <f t="shared" si="3"/>
-        <v>412070.39803576551</v>
-      </c>
-      <c r="H7" s="24">
-        <f>IF(J6&gt;0,
-      IF(YEARFRAC($B$7,D6)&gt;=$B$10,J6,H6)+N6+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D6)))*E6+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D6))))*YEARFRAC(D6,D7)+(YEARFRAC($B$7,D6)&lt;=$B$10)*$B$33*YEARFRAC(D6,D7),
-      0)</f>
         <v>54284.719604368518</v>
       </c>
       <c r="I7" s="24">
-        <f>IF(YEARFRAC($B$7,D6)&lt;$B$10,I6+M6-$B$33*YEARFRAC(D6,D7)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>342742.05251024524</v>
       </c>
       <c r="J7" s="24">
+        <f t="shared" si="5"/>
+        <v>397026.77211461373</v>
+      </c>
+      <c r="K7" s="25">
         <f t="shared" si="0"/>
-        <v>397026.77211461373</v>
-      </c>
-      <c r="K7" s="25">
-        <f>IF(G7&gt;0,G7*((1+IF($B$11&gt;0,$B$11,F7)/100/365)^(365*YEARFRAC(D7,D8))-1),0)</f>
         <v>2065.4263739502903</v>
       </c>
       <c r="L7" s="25">
+        <f t="shared" si="6"/>
+        <v>1359.1338611281144</v>
+      </c>
+      <c r="M7" s="26">
         <f t="shared" si="1"/>
-        <v>1359.1338611281144</v>
-      </c>
-      <c r="M7" s="26">
-        <f>IF(YEARFRAC($B$7,D7)&lt;$B$10,
-       (I7+MIN(0,MAX(-$B$13,H7)))*((1+$B$32/100/365)^(365*YEARFRAC(D7,D8))-1),
-       0)</f>
         <v>1087.0417814548068</v>
       </c>
       <c r="N7" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D7)&gt;=$B$10,J7,H7)*((1+IF($B$11&gt;0,$B$11,F7)/100/365)^(365*YEARFRAC(D7,D8))-1)&gt;0,
-IF(YEARFRAC($B$7,D7)&gt;=$B$10,J7,H7)*((1+IF($B$11&gt;0,$B$11,F7)/100/365)^(365*YEARFRAC(D7,D8))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>272.09207967330769</v>
       </c>
       <c r="O7" s="2"/>
@@ -1956,7 +1928,7 @@
         <v>500000</v>
       </c>
       <c r="D8" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44713</v>
       </c>
       <c r="E8" s="23">
@@ -1966,41 +1938,35 @@
         <v>3.25</v>
       </c>
       <c r="G8" s="58">
+        <f t="shared" si="8"/>
+        <v>394219.15774304909</v>
+      </c>
+      <c r="H8" s="24">
         <f t="shared" si="3"/>
-        <v>394219.15774304909</v>
-      </c>
-      <c r="H8" s="24">
-        <f>IF(J7&gt;0,
-      IF(YEARFRAC($B$7,D7)&gt;=$B$10,J7,H7)+N7+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D7)))*E7+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D7))))*YEARFRAC(D7,D8)+(YEARFRAC($B$7,D7)&lt;=$B$10)*$B$33*YEARFRAC(D7,D8),
-      0)</f>
         <v>34852.851020201204</v>
       </c>
       <c r="I8" s="24">
-        <f>IF(YEARFRAC($B$7,D7)&lt;$B$10,I7+M7-$B$33*YEARFRAC(D7,D8)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>341276.6222577875</v>
       </c>
       <c r="J8" s="24">
+        <f t="shared" si="5"/>
+        <v>376129.47327798873</v>
+      </c>
+      <c r="K8" s="25">
         <f t="shared" si="0"/>
-        <v>376129.47327798873</v>
-      </c>
-      <c r="K8" s="25">
-        <f>IF(G8&gt;0,G8*((1+IF($B$11&gt;0,$B$11,F8)/100/365)^(365*YEARFRAC(D8,D9))-1),0)</f>
         <v>1975.9503458637002</v>
       </c>
       <c r="L8" s="25">
+        <f t="shared" si="6"/>
+        <v>1257.0874639170438</v>
+      </c>
+      <c r="M8" s="26">
         <f t="shared" si="1"/>
-        <v>1257.0874639170438</v>
-      </c>
-      <c r="M8" s="26">
-        <f>IF(YEARFRAC($B$7,D8)&lt;$B$10,
-       (I8+MIN(0,MAX(-$B$13,H8)))*((1+$B$32/100/365)^(365*YEARFRAC(D8,D9))-1),
-       0)</f>
         <v>1082.3940182154774</v>
       </c>
       <c r="N8" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D8)&gt;=$B$10,J8,H8)*((1+IF($B$11&gt;0,$B$11,F8)/100/365)^(365*YEARFRAC(D8,D9))-1)&gt;0,
-IF(YEARFRAC($B$7,D8)&gt;=$B$10,J8,H8)*((1+IF($B$11&gt;0,$B$11,F8)/100/365)^(365*YEARFRAC(D8,D9))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>174.69344570156639</v>
       </c>
       <c r="O8" s="2"/>
@@ -2016,7 +1982,7 @@
         <v>350000</v>
       </c>
       <c r="D9" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44774</v>
       </c>
       <c r="E9" s="23">
@@ -2026,41 +1992,35 @@
         <v>3.5</v>
       </c>
       <c r="G9" s="58">
+        <f t="shared" si="8"/>
+        <v>376278.44142224611</v>
+      </c>
+      <c r="H9" s="24">
         <f t="shared" si="3"/>
-        <v>376278.44142224611</v>
-      </c>
-      <c r="H9" s="24">
-        <f>IF(J8&gt;0,
-      IF(YEARFRAC($B$7,D8)&gt;=$B$10,J8,H8)+N8+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D8)))*E8+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D8))))*YEARFRAC(D8,D9)+(YEARFRAC($B$7,D8)&lt;=$B$10)*$B$33*YEARFRAC(D8,D9),
-      0)</f>
         <v>15323.583802062152</v>
       </c>
       <c r="I9" s="24">
-        <f>IF(YEARFRAC($B$7,D8)&lt;$B$10,I8+M8-$B$33*YEARFRAC(D8,D9)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>339806.54424209043</v>
       </c>
       <c r="J9" s="24">
+        <f t="shared" si="5"/>
+        <v>355130.12804415257</v>
+      </c>
+      <c r="K9" s="25">
         <f t="shared" si="0"/>
-        <v>355130.12804415257</v>
-      </c>
-      <c r="K9" s="25">
-        <f>IF(G9&gt;0,G9*((1+IF($B$11&gt;0,$B$11,F9)/100/365)^(365*YEARFRAC(D9,D10))-1),0)</f>
         <v>1886.0258357965376</v>
       </c>
       <c r="L9" s="25">
+        <f t="shared" si="6"/>
+        <v>1154.5381332735037</v>
+      </c>
+      <c r="M9" s="26">
         <f t="shared" si="1"/>
-        <v>1154.5381332735037</v>
-      </c>
-      <c r="M9" s="26">
-        <f>IF(YEARFRAC($B$7,D9)&lt;$B$10,
-       (I9+MIN(0,MAX(-$B$13,H9)))*((1+$B$32/100/365)^(365*YEARFRAC(D9,D10))-1),
-       0)</f>
         <v>1077.7315141155082</v>
       </c>
       <c r="N9" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D9)&gt;=$B$10,J9,H9)*((1+IF($B$11&gt;0,$B$11,F9)/100/365)^(365*YEARFRAC(D9,D10))-1)&gt;0,
-IF(YEARFRAC($B$7,D9)&gt;=$B$10,J9,H9)*((1+IF($B$11&gt;0,$B$11,F9)/100/365)^(365*YEARFRAC(D9,D10))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>76.806619157995442</v>
       </c>
       <c r="O9" s="2"/>
@@ -2075,51 +2035,45 @@
         <v>3</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="E10" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="23">
         <v>3.5</v>
       </c>
       <c r="G10" s="58">
+        <f t="shared" si="8"/>
+        <v>358247.80059137597</v>
+      </c>
+      <c r="H10" s="24">
         <f t="shared" si="3"/>
-        <v>358247.80059137597</v>
-      </c>
-      <c r="H10" s="24">
-        <f>IF(J9&gt;0,
-      IF(YEARFRAC($B$7,D9)&gt;=$B$10,J9,H9)+N9+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D9)))*E9+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D9))))*YEARFRAC(D9,D10)+(YEARFRAC($B$7,D9)&lt;=$B$10)*$B$33*YEARFRAC(D9,D10),
-      0)</f>
         <v>-4303.5702426204716</v>
       </c>
       <c r="I10" s="24">
-        <f>IF(YEARFRAC($B$7,D9)&lt;$B$10,I9+M9-$B$33*YEARFRAC(D9,D10)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>338331.80372229341</v>
       </c>
       <c r="J10" s="24">
+        <f t="shared" si="5"/>
+        <v>334028.23347967293</v>
+      </c>
+      <c r="K10" s="25">
         <f t="shared" si="0"/>
-        <v>334028.23347967293</v>
-      </c>
-      <c r="K10" s="25">
-        <f>IF(G10&gt;0,G10*((1+IF($B$11&gt;0,$B$11,F10)/100/365)^(365*YEARFRAC(D10,D11))-1),0)</f>
         <v>1795.6505958161306</v>
       </c>
       <c r="L10" s="25">
+        <f t="shared" si="6"/>
+        <v>1059.4050053635947</v>
+      </c>
+      <c r="M10" s="26">
         <f t="shared" si="1"/>
         <v>1059.4050053635947</v>
       </c>
-      <c r="M10" s="26">
-        <f>IF(YEARFRAC($B$7,D10)&lt;$B$10,
-       (I10+MIN(0,MAX(-$B$13,H10)))*((1+$B$32/100/365)^(365*YEARFRAC(D10,D11))-1),
-       0)</f>
-        <v>1059.4050053635947</v>
-      </c>
       <c r="N10" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D10)&gt;=$B$10,J10,H10)*((1+IF($B$11&gt;0,$B$11,F10)/100/365)^(365*YEARFRAC(D10,D11))-1)&gt;0,
-IF(YEARFRAC($B$7,D10)&gt;=$B$10,J10,H10)*((1+IF($B$11&gt;0,$B$11,F10)/100/365)^(365*YEARFRAC(D10,D11))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="2"/>
@@ -2142,51 +2096,45 @@
         <v>3</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44896</v>
       </c>
       <c r="E11" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="23">
         <v>3.5</v>
       </c>
       <c r="G11" s="58">
+        <f t="shared" si="8"/>
+        <v>352626.78452052543</v>
+      </c>
+      <c r="H11" s="24">
         <f t="shared" si="3"/>
-        <v>340126.78452052543</v>
-      </c>
-      <c r="H11" s="24">
-        <f>IF(J10&gt;0,
-      IF(YEARFRAC($B$7,D10)&gt;=$B$10,J10,H10)+N10+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D10)))*E10+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D10))))*YEARFRAC(D10,D11)+(YEARFRAC($B$7,D10)&lt;=$B$10)*$B$33*YEARFRAC(D10,D11),
-      0)</f>
-        <v>-24007.530906461092</v>
+        <v>-11507.530906461092</v>
       </c>
       <c r="I11" s="24">
-        <f>IF(YEARFRAC($B$7,D10)&lt;$B$10,I10+M10-$B$33*YEARFRAC(D10,D11)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>336838.73669374443</v>
       </c>
       <c r="J11" s="24">
+        <f t="shared" si="5"/>
+        <v>325331.20578728337</v>
+      </c>
+      <c r="K11" s="25">
         <f t="shared" si="0"/>
-        <v>312831.20578728337</v>
-      </c>
-      <c r="K11" s="25">
-        <f>IF(G11&gt;0,G11*((1+IF($B$11&gt;0,$B$11,F11)/100/365)^(365*YEARFRAC(D11,D12))-1),0)</f>
-        <v>1704.8223667224618</v>
+        <v>1767.4762962389852</v>
       </c>
       <c r="L11" s="25">
+        <f t="shared" si="6"/>
+        <v>1031.8214847338513</v>
+      </c>
+      <c r="M11" s="26">
         <f t="shared" si="1"/>
-        <v>992.17644506432055</v>
-      </c>
-      <c r="M11" s="26">
-        <f>IF(YEARFRAC($B$7,D11)&lt;$B$10,
-       (I11+MIN(0,MAX(-$B$13,H11)))*((1+$B$32/100/365)^(365*YEARFRAC(D11,D12))-1),
-       0)</f>
-        <v>992.17644506432055</v>
+        <v>1031.8214847338513</v>
       </c>
       <c r="N11" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D11)&gt;=$B$10,J11,H11)*((1+IF($B$11&gt;0,$B$11,F11)/100/365)^(365*YEARFRAC(D11,D12))-1)&gt;0,
-IF(YEARFRAC($B$7,D11)&gt;=$B$10,J11,H11)*((1+IF($B$11&gt;0,$B$11,F11)/100/365)^(365*YEARFRAC(D11,D12))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="2"/>
@@ -2201,51 +2149,45 @@
         <v>30</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>44958</v>
       </c>
       <c r="E12" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="23">
         <v>3.5</v>
       </c>
       <c r="G12" s="58">
+        <f t="shared" si="8"/>
+        <v>346977.59415009775</v>
+      </c>
+      <c r="H12" s="24">
         <f t="shared" si="3"/>
-        <v>321914.94022058119</v>
-      </c>
-      <c r="H12" s="24">
-        <f>IF(J11&gt;0,
-      IF(YEARFRAC($B$7,D11)&gt;=$B$10,J11,H11)+N11+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D11)))*E11+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D11))))*YEARFRAC(D11,D12)+(YEARFRAC($B$7,D11)&lt;=$B$10)*$B$33*YEARFRAC(D11,D12),
-      0)</f>
-        <v>-43711.49157030171</v>
+        <v>-18711.49157030171</v>
       </c>
       <c r="I12" s="24">
-        <f>IF(YEARFRAC($B$7,D11)&lt;$B$10,I11+M11-$B$33*YEARFRAC(D11,D12)*12, 0)</f>
-        <v>335278.44110489619</v>
+        <f t="shared" si="4"/>
+        <v>335318.08614456572</v>
       </c>
       <c r="J12" s="24">
+        <f t="shared" si="5"/>
+        <v>316606.59457426402</v>
+      </c>
+      <c r="K12" s="25">
         <f t="shared" si="0"/>
-        <v>291566.94953459449</v>
-      </c>
-      <c r="K12" s="25">
-        <f>IF(G12&gt;0,G12*((1+IF($B$11&gt;0,$B$11,F12)/100/365)^(365*YEARFRAC(D12,D13))-1),0)</f>
-        <v>1613.5388779916932</v>
+        <v>1739.1607782154495</v>
       </c>
       <c r="L12" s="25">
+        <f t="shared" si="6"/>
+        <v>1004.1504801225404</v>
+      </c>
+      <c r="M12" s="26">
         <f t="shared" si="1"/>
-        <v>924.73466244984695</v>
-      </c>
-      <c r="M12" s="26">
-        <f>IF(YEARFRAC($B$7,D12)&lt;$B$10,
-       (I12+MIN(0,MAX(-$B$13,H12)))*((1+$B$32/100/365)^(365*YEARFRAC(D12,D13))-1),
-       0)</f>
-        <v>924.73466244984695</v>
+        <v>1004.1504801225404</v>
       </c>
       <c r="N12" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D12)&gt;=$B$10,J12,H12)*((1+IF($B$11&gt;0,$B$11,F12)/100/365)^(365*YEARFRAC(D12,D13))-1)&gt;0,
-IF(YEARFRAC($B$7,D12)&gt;=$B$10,J12,H12)*((1+IF($B$11&gt;0,$B$11,F12)/100/365)^(365*YEARFRAC(D12,D13))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O12" s="2"/>
@@ -2261,51 +2203,45 @@
         <v>50000</v>
       </c>
       <c r="D13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45017</v>
       </c>
       <c r="E13" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="23">
         <v>3.75</v>
       </c>
       <c r="G13" s="58">
+        <f t="shared" si="8"/>
+        <v>341300.08826164651</v>
+      </c>
+      <c r="H13" s="24">
         <f t="shared" si="3"/>
-        <v>303611.81243190618</v>
-      </c>
-      <c r="H13" s="24">
-        <f>IF(J12&gt;0,
-      IF(YEARFRAC($B$7,D12)&gt;=$B$10,J12,H12)+N12+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D12)))*E12+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D12))))*YEARFRAC(D12,D13)+(YEARFRAC($B$7,D12)&lt;=$B$10)*$B$33*YEARFRAC(D12,D13),
-      0)</f>
-        <v>-63415.452234142329</v>
+        <v>-25915.452234142329</v>
       </c>
       <c r="I13" s="24">
-        <f>IF(YEARFRAC($B$7,D12)&lt;$B$10,I12+M12-$B$33*YEARFRAC(D12,D13)*12, 0)</f>
-        <v>333650.7037334335</v>
+        <f t="shared" si="4"/>
+        <v>333769.76459077571</v>
       </c>
       <c r="J13" s="24">
+        <f t="shared" si="5"/>
+        <v>307854.31235663337</v>
+      </c>
+      <c r="K13" s="25">
         <f t="shared" si="0"/>
-        <v>270235.25149929116</v>
-      </c>
-      <c r="K13" s="25">
-        <f>IF(G13&gt;0,G13*((1+IF($B$11&gt;0,$B$11,F13)/100/365)^(365*YEARFRAC(D13,D14))-1),0)</f>
-        <v>1521.7978477194079</v>
+        <v>1710.7033339142756</v>
       </c>
       <c r="L13" s="25">
+        <f t="shared" si="6"/>
+        <v>976.39171406518881</v>
+      </c>
+      <c r="M13" s="26">
         <f t="shared" si="1"/>
-        <v>899.62747214418425</v>
-      </c>
-      <c r="M13" s="26">
-        <f>IF(YEARFRAC($B$7,D13)&lt;$B$10,
-       (I13+MIN(0,MAX(-$B$13,H13)))*((1+$B$32/100/365)^(365*YEARFRAC(D13,D14))-1),
-       0)</f>
-        <v>899.62747214418425</v>
+        <v>976.39171406518881</v>
       </c>
       <c r="N13" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D13)&gt;=$B$10,J13,H13)*((1+IF($B$11&gt;0,$B$11,F13)/100/365)^(365*YEARFRAC(D13,D14))-1)&gt;0,
-IF(YEARFRAC($B$7,D13)&gt;=$B$10,J13,H13)*((1+IF($B$11&gt;0,$B$11,F13)/100/365)^(365*YEARFRAC(D13,D14))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O13" s="2"/>
@@ -2321,51 +2257,45 @@
         <v>2</v>
       </c>
       <c r="D14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45078</v>
       </c>
       <c r="E14" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="23">
         <v>3.75</v>
       </c>
       <c r="G14" s="58">
+        <f t="shared" si="8"/>
+        <v>335594.1249288941</v>
+      </c>
+      <c r="H14" s="24">
         <f t="shared" si="3"/>
-        <v>285216.94361295889</v>
-      </c>
-      <c r="H14" s="24">
-        <f>IF(J13&gt;0,
-      IF(YEARFRAC($B$7,D13)&gt;=$B$10,J13,H13)+N13+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D13)))*E13+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D13))))*YEARFRAC(D13,D14)+(YEARFRAC($B$7,D13)&lt;=$B$10)*$B$33*YEARFRAC(D13,D14),
-      0)</f>
-        <v>-83119.412897982955</v>
+        <v>-33119.412897982947</v>
       </c>
       <c r="I14" s="24">
-        <f>IF(YEARFRAC($B$7,D13)&lt;$B$10,I13+M13-$B$33*YEARFRAC(D13,D14)*12, 0)</f>
-        <v>331997.85917166516</v>
+        <f t="shared" si="4"/>
+        <v>332193.68427092832</v>
       </c>
       <c r="J14" s="24">
+        <f t="shared" si="5"/>
+        <v>299074.2713729454</v>
+      </c>
+      <c r="K14" s="25">
         <f t="shared" si="0"/>
-        <v>248878.4462736822</v>
-      </c>
-      <c r="K14" s="25">
-        <f>IF(G14&gt;0,G14*((1+IF($B$11&gt;0,$B$11,F14)/100/365)^(365*YEARFRAC(D14,D15))-1),0)</f>
-        <v>1429.5969825635664</v>
+        <v>1682.1032519563448</v>
       </c>
       <c r="L14" s="25">
+        <f t="shared" si="6"/>
+        <v>948.54490821731554</v>
+      </c>
+      <c r="M14" s="26">
         <f t="shared" si="1"/>
-        <v>894.38530508667429</v>
-      </c>
-      <c r="M14" s="26">
-        <f>IF(YEARFRAC($B$7,D14)&lt;$B$10,
-       (I14+MIN(0,MAX(-$B$13,H14)))*((1+$B$32/100/365)^(365*YEARFRAC(D14,D15))-1),
-       0)</f>
-        <v>894.38530508667429</v>
+        <v>948.54490821731554</v>
       </c>
       <c r="N14" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D14)&gt;=$B$10,J14,H14)*((1+IF($B$11&gt;0,$B$11,F14)/100/365)^(365*YEARFRAC(D14,D15))-1)&gt;0,
-IF(YEARFRAC($B$7,D14)&gt;=$B$10,J14,H14)*((1+IF($B$11&gt;0,$B$11,F14)/100/365)^(365*YEARFRAC(D14,D15))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="2"/>
@@ -2381,56 +2311,50 @@
       <c r="Y14" s="5"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="64"/>
       <c r="D15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45139</v>
       </c>
       <c r="E15" s="23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="23">
         <v>3.75</v>
       </c>
       <c r="G15" s="58">
+        <f t="shared" si="8"/>
+        <v>329859.56151418376</v>
+      </c>
+      <c r="H15" s="24">
         <f t="shared" si="3"/>
-        <v>266729.87392885576</v>
-      </c>
-      <c r="H15" s="24">
-        <f>IF(J14&gt;0,
-      IF(YEARFRAC($B$7,D14)&gt;=$B$10,J14,H14)+N14+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D14)))*E14+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D14))))*YEARFRAC(D14,D15)+(YEARFRAC($B$7,D14)&lt;=$B$10)*$B$33*YEARFRAC(D14,D15),
-      0)</f>
-        <v>-102823.37356182357</v>
+        <v>-40323.373561823566</v>
       </c>
       <c r="I15" s="24">
-        <f>IF(YEARFRAC($B$7,D14)&lt;$B$10,I14+M14-$B$33*YEARFRAC(D14,D15)*12, 0)</f>
-        <v>330339.77244283928</v>
+        <f t="shared" si="4"/>
+        <v>330589.7571452331</v>
       </c>
       <c r="J15" s="24">
+        <f t="shared" si="5"/>
+        <v>290266.38358340954</v>
+      </c>
+      <c r="K15" s="25">
         <f t="shared" si="0"/>
-        <v>227516.39888101572</v>
-      </c>
-      <c r="K15" s="25">
-        <f>IF(G15&gt;0,G15*((1+IF($B$11&gt;0,$B$11,F15)/100/365)^(365*YEARFRAC(D15,D16))-1),0)</f>
-        <v>1336.933977687178</v>
+        <v>1653.359817396881</v>
       </c>
       <c r="L15" s="25">
+        <f t="shared" si="6"/>
+        <v>920.60978335164145</v>
+      </c>
+      <c r="M15" s="26">
         <f t="shared" si="1"/>
-        <v>889.12651195548835</v>
-      </c>
-      <c r="M15" s="26">
-        <f>IF(YEARFRAC($B$7,D15)&lt;$B$10,
-       (I15+MIN(0,MAX(-$B$13,H15)))*((1+$B$32/100/365)^(365*YEARFRAC(D15,D16))-1),
-       0)</f>
-        <v>889.12651195548835</v>
+        <v>920.60978335164145</v>
       </c>
       <c r="N15" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D15)&gt;=$B$10,J15,H15)*((1+IF($B$11&gt;0,$B$11,F15)/100/365)^(365*YEARFRAC(D15,D16))-1)&gt;0,
-IF(YEARFRAC($B$7,D15)&gt;=$B$10,J15,H15)*((1+IF($B$11&gt;0,$B$11,F15)/100/365)^(365*YEARFRAC(D15,D16))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="2"/>
@@ -2453,7 +2377,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45200</v>
       </c>
       <c r="E16" s="23">
@@ -2463,41 +2387,35 @@
         <v>3.75</v>
       </c>
       <c r="G16" s="58">
+        <f t="shared" si="8"/>
+        <v>324096.25466491398</v>
+      </c>
+      <c r="H16" s="24">
         <f t="shared" si="3"/>
-        <v>248150.14123987625</v>
-      </c>
-      <c r="H16" s="24">
-        <f>IF(J15&gt;0,
-      IF(YEARFRAC($B$7,D15)&gt;=$B$10,J15,H15)+N15+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D15)))*E15+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D15))))*YEARFRAC(D15,D16)+(YEARFRAC($B$7,D15)&lt;=$B$10)*$B$33*YEARFRAC(D15,D16),
-      0)</f>
-        <v>-122527.33422566418</v>
+        <v>-47527.334225664184</v>
       </c>
       <c r="I16" s="24">
-        <f>IF(YEARFRAC($B$7,D15)&lt;$B$10,I15+M15-$B$33*YEARFRAC(D15,D16)*12, 0)</f>
-        <v>328676.42692088225</v>
+        <f t="shared" si="4"/>
+        <v>328957.89489467221</v>
       </c>
       <c r="J16" s="24">
+        <f t="shared" si="5"/>
+        <v>281430.560669008</v>
+      </c>
+      <c r="K16" s="25">
         <f t="shared" si="0"/>
-        <v>206149.09269521807</v>
-      </c>
-      <c r="K16" s="25">
-        <f>IF(G16&gt;0,G16*((1+IF($B$11&gt;0,$B$11,F16)/100/365)^(365*YEARFRAC(D16,D17))-1),0)</f>
-        <v>1243.8065167006844</v>
+        <v>1624.4723117075814</v>
       </c>
       <c r="L16" s="25">
+        <f t="shared" si="6"/>
+        <v>892.58605935528965</v>
+      </c>
+      <c r="M16" s="26">
         <f t="shared" si="1"/>
-        <v>883.85104001931848</v>
-      </c>
-      <c r="M16" s="26">
-        <f>IF(YEARFRAC($B$7,D16)&lt;$B$10,
-       (I16+MIN(0,MAX(-$B$13,H16)))*((1+$B$32/100/365)^(365*YEARFRAC(D16,D17))-1),
-       0)</f>
-        <v>883.85104001931848</v>
+        <v>892.58605935528965</v>
       </c>
       <c r="N16" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D16)&gt;=$B$10,J16,H16)*((1+IF($B$11&gt;0,$B$11,F16)/100/365)^(365*YEARFRAC(D16,D17))-1)&gt;0,
-IF(YEARFRAC($B$7,D16)&gt;=$B$10,J16,H16)*((1+IF($B$11&gt;0,$B$11,F16)/100/365)^(365*YEARFRAC(D16,D17))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O16" s="2"/>
@@ -2520,7 +2438,7 @@
         <v>1.8</v>
       </c>
       <c r="D17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45261</v>
       </c>
       <c r="E17" s="23">
@@ -2530,41 +2448,35 @@
         <v>4</v>
       </c>
       <c r="G17" s="58">
+        <f t="shared" si="8"/>
+        <v>305804.06030995486</v>
+      </c>
+      <c r="H17" s="24">
         <f t="shared" si="3"/>
-        <v>229477.28108991028</v>
-      </c>
-      <c r="H17" s="24">
-        <f>IF(J16&gt;0,
-      IF(YEARFRAC($B$7,D16)&gt;=$B$10,J16,H16)+N16+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D16)))*E16+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D16))))*YEARFRAC(D16,D17)+(YEARFRAC($B$7,D16)&lt;=$B$10)*$B$33*YEARFRAC(D16,D17),
-      0)</f>
-        <v>-142231.29488950479</v>
+        <v>-67231.294889504803</v>
       </c>
       <c r="I17" s="24">
-        <f>IF(YEARFRAC($B$7,D16)&lt;$B$10,I16+M16-$B$33*YEARFRAC(D16,D17)*12, 0)</f>
-        <v>327007.80592698901</v>
+        <f t="shared" si="4"/>
+        <v>327298.00892011495</v>
       </c>
       <c r="J17" s="24">
+        <f t="shared" si="5"/>
+        <v>260066.71403061016</v>
+      </c>
+      <c r="K17" s="25">
         <f t="shared" si="0"/>
-        <v>184776.51103748422</v>
-      </c>
-      <c r="K17" s="25">
-        <f>IF(G17&gt;0,G17*((1+IF($B$11&gt;0,$B$11,F17)/100/365)^(365*YEARFRAC(D17,D18))-1),0)</f>
-        <v>1150.2122716040549</v>
+        <v>1532.7860832421288</v>
       </c>
       <c r="L17" s="25">
+        <f t="shared" si="6"/>
+        <v>879.47924511358929</v>
+      </c>
+      <c r="M17" s="26">
         <f t="shared" si="1"/>
-        <v>878.55883637961369</v>
-      </c>
-      <c r="M17" s="26">
-        <f>IF(YEARFRAC($B$7,D17)&lt;$B$10,
-       (I17+MIN(0,MAX(-$B$13,H17)))*((1+$B$32/100/365)^(365*YEARFRAC(D17,D18))-1),
-       0)</f>
-        <v>878.55883637961369</v>
+        <v>879.47924511358929</v>
       </c>
       <c r="N17" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D17)&gt;=$B$10,J17,H17)*((1+IF($B$11&gt;0,$B$11,F17)/100/365)^(365*YEARFRAC(D17,D18))-1)&gt;0,
-IF(YEARFRAC($B$7,D17)&gt;=$B$10,J17,H17)*((1+IF($B$11&gt;0,$B$11,F17)/100/365)^(365*YEARFRAC(D17,D18))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="2"/>
@@ -2587,7 +2499,7 @@
         <v>1.85</v>
       </c>
       <c r="D18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45323</v>
       </c>
       <c r="E18" s="23">
@@ -2597,41 +2509,35 @@
         <v>4</v>
       </c>
       <c r="G18" s="58">
+        <f t="shared" si="8"/>
+        <v>287420.17972653033</v>
+      </c>
+      <c r="H18" s="24">
         <f t="shared" si="3"/>
-        <v>210710.82669484767</v>
-      </c>
-      <c r="H18" s="24">
-        <f>IF(J17&gt;0,
-      IF(YEARFRAC($B$7,D17)&gt;=$B$10,J17,H17)+N17+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D17)))*E17+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D17))))*YEARFRAC(D17,D18)+(YEARFRAC($B$7,D17)&lt;=$B$10)*$B$33*YEARFRAC(D17,D18),
-      0)</f>
-        <v>-161935.2555533454</v>
+        <v>-86935.255553345429</v>
       </c>
       <c r="I18" s="24">
-        <f>IF(YEARFRAC($B$7,D17)&lt;$B$10,I17+M17-$B$33*YEARFRAC(D17,D18)*12, 0)</f>
-        <v>325333.89272945607</v>
+        <f t="shared" si="4"/>
+        <v>325625.01613131602</v>
       </c>
       <c r="J18" s="24">
+        <f t="shared" si="5"/>
+        <v>238689.76057797059</v>
+      </c>
+      <c r="K18" s="25">
         <f t="shared" si="0"/>
-        <v>163398.63717611067</v>
-      </c>
-      <c r="K18" s="25">
-        <f>IF(G18&gt;0,G18*((1+IF($B$11&gt;0,$B$11,F18)/100/365)^(365*YEARFRAC(D18,D19))-1),0)</f>
-        <v>1056.1489027285904</v>
+        <v>1440.6402945770035</v>
       </c>
       <c r="L18" s="25">
+        <f t="shared" si="6"/>
+        <v>874.17317587528748</v>
+      </c>
+      <c r="M18" s="26">
         <f t="shared" si="1"/>
-        <v>873.24984797005015</v>
-      </c>
-      <c r="M18" s="26">
-        <f>IF(YEARFRAC($B$7,D18)&lt;$B$10,
-       (I18+MIN(0,MAX(-$B$13,H18)))*((1+$B$32/100/365)^(365*YEARFRAC(D18,D19))-1),
-       0)</f>
-        <v>873.24984797005015</v>
+        <v>874.17317587528748</v>
       </c>
       <c r="N18" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D18)&gt;=$B$10,J18,H18)*((1+IF($B$11&gt;0,$B$11,F18)/100/365)^(365*YEARFRAC(D18,D19))-1)&gt;0,
-IF(YEARFRAC($B$7,D18)&gt;=$B$10,J18,H18)*((1+IF($B$11&gt;0,$B$11,F18)/100/365)^(365*YEARFRAC(D18,D19))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="2"/>
@@ -2654,7 +2560,7 @@
         <v>1.9</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45383</v>
       </c>
       <c r="E19" s="23">
@@ -2664,41 +2570,35 @@
         <v>4</v>
       </c>
       <c r="G19" s="58">
+        <f t="shared" si="8"/>
+        <v>268944.15335444064</v>
+      </c>
+      <c r="H19" s="24">
         <f t="shared" si="3"/>
-        <v>191850.30893090961</v>
-      </c>
-      <c r="H19" s="24">
-        <f>IF(J18&gt;0,
-      IF(YEARFRAC($B$7,D18)&gt;=$B$10,J18,H18)+N18+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D18)))*E18+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D18))))*YEARFRAC(D18,D19)+(YEARFRAC($B$7,D18)&lt;=$B$10)*$B$33*YEARFRAC(D18,D19),
-      0)</f>
-        <v>-181639.21621718601</v>
+        <v>-106639.21621718604</v>
       </c>
       <c r="I19" s="24">
-        <f>IF(YEARFRAC($B$7,D18)&lt;$B$10,I18+M18-$B$33*YEARFRAC(D18,D19)*12, 0)</f>
-        <v>323654.67054351355</v>
+        <f t="shared" si="4"/>
+        <v>323946.71727327874</v>
       </c>
       <c r="J19" s="24">
+        <f t="shared" si="5"/>
+        <v>217307.5010560927</v>
+      </c>
+      <c r="K19" s="25">
         <f t="shared" si="0"/>
-        <v>142015.45432632754</v>
-      </c>
-      <c r="K19" s="25">
-        <f>IF(G19&gt;0,G19*((1+IF($B$11&gt;0,$B$11,F19)/100/365)^(365*YEARFRAC(D19,D20))-1),0)</f>
-        <v>961.61405867843735</v>
+        <v>1348.0326422520166</v>
       </c>
       <c r="L19" s="25">
+        <f t="shared" si="6"/>
+        <v>868.85027789095022</v>
+      </c>
+      <c r="M19" s="26">
         <f t="shared" si="1"/>
-        <v>867.92402155599837</v>
-      </c>
-      <c r="M19" s="26">
-        <f>IF(YEARFRAC($B$7,D19)&lt;$B$10,
-       (I19+MIN(0,MAX(-$B$13,H19)))*((1+$B$32/100/365)^(365*YEARFRAC(D19,D20))-1),
-       0)</f>
-        <v>867.92402155599837</v>
+        <v>868.85027789095022</v>
       </c>
       <c r="N19" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D19)&gt;=$B$10,J19,H19)*((1+IF($B$11&gt;0,$B$11,F19)/100/365)^(365*YEARFRAC(D19,D20))-1)&gt;0,
-IF(YEARFRAC($B$7,D19)&gt;=$B$10,J19,H19)*((1+IF($B$11&gt;0,$B$11,F19)/100/365)^(365*YEARFRAC(D19,D20))-1),
-0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O19" s="2"/>
@@ -2714,7 +2614,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>45444</v>
       </c>
       <c r="E20" s="23">
@@ -2724,42 +2624,36 @@
         <v>4</v>
       </c>
       <c r="G20" s="58">
+        <f t="shared" si="8"/>
+        <v>250375.51933002603</v>
+      </c>
+      <c r="H20" s="24">
         <f t="shared" si="3"/>
-        <v>172895.2563229214</v>
-      </c>
-      <c r="H20" s="24">
-        <f>IF(J19&gt;0,
-      IF(YEARFRAC($B$7,D19)&gt;=$B$10,J19,H19)+N19+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D19)))*E19+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D19))))*YEARFRAC(D19,D20)+(YEARFRAC($B$7,D19)&lt;=$B$10)*$B$33*YEARFRAC(D19,D20),
-      0)</f>
-        <v>-201343.17688102662</v>
+        <v>-126343.17688102665</v>
       </c>
       <c r="I20" s="24">
-        <f>IF(YEARFRAC($B$7,D19)&lt;$B$10,I19+M19-$B$33*YEARFRAC(D19,D20)*12, 0)</f>
-        <v>321970.12253115699</v>
+        <f t="shared" si="4"/>
+        <v>322263.09551725717</v>
       </c>
       <c r="J20" s="24">
+        <f t="shared" si="5"/>
+        <v>195919.91863623052</v>
+      </c>
+      <c r="K20" s="25">
         <f t="shared" si="0"/>
-        <v>120626.94565013036</v>
-      </c>
-      <c r="K20" s="25">
-        <f>IF(G20&gt;0,G20*((1+IF($B$11&gt;0,$B$11,F20)/100/365)^(365*YEARFRAC(D20,D21))-1),0)</f>
-        <v>866.60537627180634</v>
+        <v>1254.9608112613132</v>
       </c>
       <c r="L20" s="25">
+        <f t="shared" si="6"/>
+        <v>982.01222184939229</v>
+      </c>
+      <c r="M20" s="26">
         <f t="shared" si="1"/>
-        <v>604.62017204454219</v>
-      </c>
-      <c r="M20" s="26">
-        <f>IF(YEARFRAC($B$7,D20)&lt;$B$10,
-       (I20+MIN(0,MAX(-$B$13,H20)))*((1+$B$32/100/365)^(365*YEARFRAC(D20,D21))-1),
-       0)</f>
         <v>0</v>
       </c>
       <c r="N20" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D20)&gt;=$B$10,J20,H20)*((1+IF($B$11&gt;0,$B$11,F20)/100/365)^(365*YEARFRAC(D20,D21))-1)&gt;0,
-IF(YEARFRAC($B$7,D20)&gt;=$B$10,J20,H20)*((1+IF($B$11&gt;0,$B$11,F20)/100/365)^(365*YEARFRAC(D20,D21))-1),
-0)</f>
-        <v>604.62017204454219</v>
+        <f t="shared" si="2"/>
+        <v>982.01222184939229</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="4"/>
@@ -2781,52 +2675,46 @@
         <v>2.5</v>
       </c>
       <c r="D21" s="22">
+        <f t="shared" si="7"/>
+        <v>45505</v>
+      </c>
+      <c r="E21" s="23">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G21" s="58">
+        <f t="shared" si="8"/>
+        <v>231713.81347462069</v>
+      </c>
+      <c r="H21" s="24">
+        <f t="shared" si="3"/>
+        <v>177197.97019423929</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="24">
+        <f t="shared" si="5"/>
+        <v>177197.97019423929</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" si="0"/>
+        <v>1161.4224749955004</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="6"/>
+        <v>888.17193080167181</v>
+      </c>
+      <c r="M21" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="27">
         <f t="shared" si="2"/>
-        <v>45505</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G21" s="58">
-        <f t="shared" si="3"/>
-        <v>153845.19503252654</v>
-      </c>
-      <c r="H21" s="24">
-        <f>IF(J20&gt;0,
-      IF(YEARFRAC($B$7,D20)&gt;=$B$10,J20,H20)+N20+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D20)))*E20+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D20))))*YEARFRAC(D20,D21)+(YEARFRAC($B$7,D20)&lt;=$B$10)*$B$33*YEARFRAC(D20,D21),
-      0)</f>
-        <v>101527.60515833428</v>
-      </c>
-      <c r="I21" s="24">
-        <f>IF(YEARFRAC($B$7,D20)&lt;$B$10,I20+M20-$B$33*YEARFRAC(D20,D21)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="24">
-        <f t="shared" si="0"/>
-        <v>101527.60515833428</v>
-      </c>
-      <c r="K21" s="25">
-        <f>IF(G21&gt;0,G21*((1+IF($B$11&gt;0,$B$11,F21)/100/365)^(365*YEARFRAC(D21,D22))-1),0)</f>
-        <v>771.1204804818982</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="1"/>
-        <v>508.88827340573619</v>
-      </c>
-      <c r="M21" s="26">
-        <f>IF(YEARFRAC($B$7,D21)&lt;$B$10,
-       (I21+MIN(0,MAX(-$B$13,H21)))*((1+$B$32/100/365)^(365*YEARFRAC(D21,D22))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D21)&gt;=$B$10,J21,H21)*((1+IF($B$11&gt;0,$B$11,F21)/100/365)^(365*YEARFRAC(D21,D22))-1)&gt;0,
-IF(YEARFRAC($B$7,D21)&gt;=$B$10,J21,H21)*((1+IF($B$11&gt;0,$B$11,F21)/100/365)^(365*YEARFRAC(D21,D22))-1),
-0)</f>
-        <v>508.88827340573619</v>
+        <v>888.17193080167181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="5"/>
@@ -2842,52 +2730,46 @@
     </row>
     <row r="22" spans="1:25" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="22">
+        <f t="shared" si="7"/>
+        <v>45566</v>
+      </c>
+      <c r="E22" s="23">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G22" s="58">
+        <f t="shared" si="8"/>
+        <v>212958.56928294952</v>
+      </c>
+      <c r="H22" s="24">
+        <f t="shared" si="3"/>
+        <v>158169.47545837431</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="24">
+        <f t="shared" si="5"/>
+        <v>158169.47545837431</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" si="0"/>
+        <v>1067.4152951834883</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="6"/>
+        <v>792.79513336275807</v>
+      </c>
+      <c r="M22" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="27">
         <f t="shared" si="2"/>
-        <v>45566</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G22" s="58">
-        <f t="shared" si="3"/>
-        <v>134699.64884634176</v>
-      </c>
-      <c r="H22" s="24">
-        <f>IF(J21&gt;0,
-      IF(YEARFRAC($B$7,D21)&gt;=$B$10,J21,H21)+N21+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D21)))*E21+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D21))))*YEARFRAC(D21,D22)+(YEARFRAC($B$7,D21)&lt;=$B$10)*$B$33*YEARFRAC(D21,D22),
-      0)</f>
-        <v>82119.826765073347</v>
-      </c>
-      <c r="I22" s="24">
-        <f>IF(YEARFRAC($B$7,D21)&lt;$B$10,I21+M21-$B$33*YEARFRAC(D21,D22)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="24">
-        <f t="shared" si="0"/>
-        <v>82119.826765073347</v>
-      </c>
-      <c r="K22" s="25">
-        <f>IF(G22&gt;0,G22*((1+IF($B$11&gt;0,$B$11,F22)/100/365)^(365*YEARFRAC(D22,D23))-1),0)</f>
-        <v>675.15698437753292</v>
-      </c>
-      <c r="L22" s="25">
-        <f t="shared" si="1"/>
-        <v>411.61038704384197</v>
-      </c>
-      <c r="M22" s="26">
-        <f>IF(YEARFRAC($B$7,D22)&lt;$B$10,
-       (I22+MIN(0,MAX(-$B$13,H22)))*((1+$B$32/100/365)^(365*YEARFRAC(D22,D23))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D22)&gt;=$B$10,J22,H22)*((1+IF($B$11&gt;0,$B$11,F22)/100/365)^(365*YEARFRAC(D22,D23))-1)&gt;0,
-IF(YEARFRAC($B$7,D22)&gt;=$B$10,J22,H22)*((1+IF($B$11&gt;0,$B$11,F22)/100/365)^(365*YEARFRAC(D22,D23))-1),
-0)</f>
-        <v>411.61038704384197</v>
+        <v>792.79513336275807</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="4"/>
@@ -2902,57 +2784,51 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="60"/>
+      <c r="B23" s="66"/>
       <c r="D23" s="22">
+        <f t="shared" si="7"/>
+        <v>45627</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G23" s="58">
+        <f t="shared" si="8"/>
+        <v>194109.31791146635</v>
+      </c>
+      <c r="H23" s="24">
+        <f t="shared" si="3"/>
+        <v>139045.60392507041</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="24">
+        <f t="shared" si="5"/>
+        <v>139045.60392507041</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="0"/>
+        <v>972.93692183403698</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="6"/>
+        <v>696.94027743230424</v>
+      </c>
+      <c r="M23" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="27">
         <f t="shared" si="2"/>
-        <v>45627</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G23" s="58">
-        <f t="shared" si="3"/>
-        <v>115458.13916405264</v>
-      </c>
-      <c r="H23" s="24">
-        <f>IF(J22&gt;0,
-      IF(YEARFRAC($B$7,D22)&gt;=$B$10,J22,H22)+N22+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D22)))*E22+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D22))))*YEARFRAC(D22,D23)+(YEARFRAC($B$7,D22)&lt;=$B$10)*$B$33*YEARFRAC(D22,D23),
-      0)</f>
-        <v>62614.770485450521</v>
-      </c>
-      <c r="I23" s="24">
-        <f>IF(YEARFRAC($B$7,D22)&lt;$B$10,I22+M22-$B$33*YEARFRAC(D22,D23)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="24">
-        <f t="shared" si="0"/>
-        <v>62614.770485450521</v>
-      </c>
-      <c r="K23" s="25">
-        <f>IF(G23&gt;0,G23*((1+IF($B$11&gt;0,$B$11,F23)/100/365)^(365*YEARFRAC(D23,D24))-1),0)</f>
-        <v>578.71248906348114</v>
-      </c>
-      <c r="L23" s="25">
-        <f t="shared" si="1"/>
-        <v>313.84491333509698</v>
-      </c>
-      <c r="M23" s="26">
-        <f>IF(YEARFRAC($B$7,D23)&lt;$B$10,
-       (I23+MIN(0,MAX(-$B$13,H23)))*((1+$B$32/100/365)^(365*YEARFRAC(D23,D24))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D23)&gt;=$B$10,J23,H23)*((1+IF($B$11&gt;0,$B$11,F23)/100/365)^(365*YEARFRAC(D23,D24))-1)&gt;0,
-IF(YEARFRAC($B$7,D23)&gt;=$B$10,J23,H23)*((1+IF($B$11&gt;0,$B$11,F23)/100/365)^(365*YEARFRAC(D23,D24))-1),
-0)</f>
-        <v>313.84491333509698</v>
+        <v>696.94027743230424</v>
       </c>
       <c r="O23" s="2"/>
       <c r="U23" s="19"/>
@@ -2964,55 +2840,49 @@
       </c>
       <c r="B24" s="33">
         <f>SUM(B25:B26)</f>
-        <v>23431.727247124665</v>
+        <v>27049.609584934406</v>
       </c>
       <c r="D24" s="22">
+        <f t="shared" si="7"/>
+        <v>45689</v>
+      </c>
+      <c r="E24" s="23">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G24" s="58">
+        <f t="shared" si="8"/>
+        <v>175165.58816663374</v>
+      </c>
+      <c r="H24" s="24">
+        <f t="shared" si="3"/>
+        <v>119825.87753583604</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="24">
+        <f t="shared" si="5"/>
+        <v>119825.87753583604</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="0"/>
+        <v>877.98499317701203</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="6"/>
+        <v>600.60496683086774</v>
+      </c>
+      <c r="M24" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="27">
         <f t="shared" si="2"/>
-        <v>45689</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1</v>
-      </c>
-      <c r="F24" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G24" s="58">
-        <f t="shared" si="3"/>
-        <v>96120.184986449458</v>
-      </c>
-      <c r="H24" s="24">
-        <f>IF(J23&gt;0,
-      IF(YEARFRAC($B$7,D23)&gt;=$B$10,J23,H23)+N23+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D23)))*E23+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D23))))*YEARFRAC(D23,D24)+(YEARFRAC($B$7,D23)&lt;=$B$10)*$B$33*YEARFRAC(D23,D24),
-      0)</f>
-        <v>43011.948732118952</v>
-      </c>
-      <c r="I24" s="24">
-        <f>IF(YEARFRAC($B$7,D23)&lt;$B$10,I23+M23-$B$33*YEARFRAC(D23,D24)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="24">
-        <f t="shared" si="0"/>
-        <v>43011.948732118952</v>
-      </c>
-      <c r="K24" s="25">
-        <f>IF(G24&gt;0,G24*((1+IF($B$11&gt;0,$B$11,F24)/100/365)^(365*YEARFRAC(D24,D25))-1),0)</f>
-        <v>481.78458362049628</v>
-      </c>
-      <c r="L24" s="25">
-        <f t="shared" si="1"/>
-        <v>215.58940833844019</v>
-      </c>
-      <c r="M24" s="26">
-        <f>IF(YEARFRAC($B$7,D24)&lt;$B$10,
-       (I24+MIN(0,MAX(-$B$13,H24)))*((1+$B$32/100/365)^(365*YEARFRAC(D24,D25))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D24)&gt;=$B$10,J24,H24)*((1+IF($B$11&gt;0,$B$11,F24)/100/365)^(365*YEARFRAC(D24,D25))-1)&gt;0,
-IF(YEARFRAC($B$7,D24)&gt;=$B$10,J24,H24)*((1+IF($B$11&gt;0,$B$11,F24)/100/365)^(365*YEARFRAC(D24,D25))-1),
-0)</f>
-        <v>215.58940833844019</v>
+        <v>600.60496683086774</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="15"/>
@@ -3032,55 +2902,49 @@
       </c>
       <c r="B25" s="34">
         <f>SUM(M:M)</f>
-        <v>17914.619141582771</v>
+        <v>18207.592127682925</v>
       </c>
       <c r="D25" s="22">
+        <f t="shared" si="7"/>
+        <v>45748</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G25" s="58">
+        <f t="shared" si="8"/>
+        <v>156126.90649314408</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="3"/>
+        <v>100509.81583600026</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="24">
+        <f t="shared" si="5"/>
+        <v>100509.81583600026</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="0"/>
+        <v>782.55713560434424</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="6"/>
+        <v>503.78679336860131</v>
+      </c>
+      <c r="M25" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="27">
         <f t="shared" si="2"/>
-        <v>45748</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G25" s="58">
-        <f t="shared" si="3"/>
-        <v>76685.302903403295</v>
-      </c>
-      <c r="H25" s="24">
-        <f>IF(J24&gt;0,
-      IF(YEARFRAC($B$7,D24)&gt;=$B$10,J24,H24)+N24+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D24)))*E24+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D24))))*YEARFRAC(D24,D25)+(YEARFRAC($B$7,D24)&lt;=$B$10)*$B$33*YEARFRAC(D24,D25),
-      0)</f>
-        <v>23310.871473790728</v>
-      </c>
-      <c r="I25" s="24">
-        <f>IF(YEARFRAC($B$7,D24)&lt;$B$10,I24+M24-$B$33*YEARFRAC(D24,D25)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="24">
-        <f t="shared" si="0"/>
-        <v>23310.871473790728</v>
-      </c>
-      <c r="K25" s="25">
-        <f>IF(G25&gt;0,G25*((1+IF($B$11&gt;0,$B$11,F25)/100/365)^(365*YEARFRAC(D25,D26))-1),0)</f>
-        <v>384.37084504504674</v>
-      </c>
-      <c r="L25" s="25">
-        <f t="shared" si="1"/>
-        <v>116.84141586300979</v>
-      </c>
-      <c r="M25" s="26">
-        <f>IF(YEARFRAC($B$7,D25)&lt;$B$10,
-       (I25+MIN(0,MAX(-$B$13,H25)))*((1+$B$32/100/365)^(365*YEARFRAC(D25,D26))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D25)&gt;=$B$10,J25,H25)*((1+IF($B$11&gt;0,$B$11,F25)/100/365)^(365*YEARFRAC(D25,D26))-1)&gt;0,
-IF(YEARFRAC($B$7,D25)&gt;=$B$10,J25,H25)*((1+IF($B$11&gt;0,$B$11,F25)/100/365)^(365*YEARFRAC(D25,D26))-1),
-0)</f>
-        <v>116.84141586300979</v>
+        <v>503.78679336860131</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="4"/>
@@ -3100,55 +2964,49 @@
       </c>
       <c r="B26" s="34">
         <f>SUM(N:N)</f>
-        <v>5517.1081055418945</v>
+        <v>8842.0174572514825</v>
       </c>
       <c r="D26" s="22">
+        <f t="shared" si="7"/>
+        <v>45809</v>
+      </c>
+      <c r="E26" s="23">
+        <v>1</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G26" s="58">
+        <f t="shared" si="8"/>
+        <v>136992.79696208177</v>
+      </c>
+      <c r="H26" s="24">
+        <f t="shared" si="3"/>
+        <v>81096.935962702206</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="24">
+        <f t="shared" si="5"/>
+        <v>81096.935962702206</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="0"/>
+        <v>686.65096361069482</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="6"/>
+        <v>406.48333678505304</v>
+      </c>
+      <c r="M26" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="27">
         <f t="shared" si="2"/>
-        <v>45809</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1</v>
-      </c>
-      <c r="F26" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G26" s="58">
-        <f t="shared" si="3"/>
-        <v>57153.007081781681</v>
-      </c>
-      <c r="H26" s="24">
-        <f>IF(J25&gt;0,
-      IF(YEARFRAC($B$7,D25)&gt;=$B$10,J25,H25)+N25+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D25)))*E25+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D25))))*YEARFRAC(D25,D26)+(YEARFRAC($B$7,D25)&lt;=$B$10)*$B$33*YEARFRAC(D25,D26),
-      0)</f>
-        <v>3511.0462229870755</v>
-      </c>
-      <c r="I26" s="24">
-        <f>IF(YEARFRAC($B$7,D25)&lt;$B$10,I25+M25-$B$33*YEARFRAC(D25,D26)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="24">
-        <f t="shared" si="0"/>
-        <v>3511.0462229870755</v>
-      </c>
-      <c r="K26" s="25">
-        <f>IF(G26&gt;0,G26*((1+IF($B$11&gt;0,$B$11,F26)/100/365)^(365*YEARFRAC(D26,D27))-1),0)</f>
-        <v>286.46883818874539</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="1"/>
-        <v>17.598467406743058</v>
-      </c>
-      <c r="M26" s="26">
-        <f>IF(YEARFRAC($B$7,D26)&lt;$B$10,
-       (I26+MIN(0,MAX(-$B$13,H26)))*((1+$B$32/100/365)^(365*YEARFRAC(D26,D27))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D26)&gt;=$B$10,J26,H26)*((1+IF($B$11&gt;0,$B$11,F26)/100/365)^(365*YEARFRAC(D26,D27))-1)&gt;0,
-IF(YEARFRAC($B$7,D26)&gt;=$B$10,J26,H26)*((1+IF($B$11&gt;0,$B$11,F26)/100/365)^(365*YEARFRAC(D26,D27))-1),
-0)</f>
-        <v>17.598467406743058</v>
+        <v>406.48333678505304</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="5"/>
@@ -3168,55 +3026,49 @@
       </c>
       <c r="B27" s="35">
         <f>SUM(K:K)</f>
-        <v>35716.742253618373</v>
+        <v>42759.946935784843</v>
       </c>
       <c r="D27" s="22">
+        <f t="shared" si="7"/>
+        <v>45870</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G27" s="58">
+        <f t="shared" si="8"/>
+        <v>117762.78125902583</v>
+      </c>
+      <c r="H27" s="24">
+        <f t="shared" si="3"/>
+        <v>61586.752632820593</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="24">
+        <f t="shared" si="5"/>
+        <v>61586.752632820593</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" si="0"/>
+        <v>590.2640797338222</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="6"/>
+        <v>308.69216468866472</v>
+      </c>
+      <c r="M27" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="27">
         <f t="shared" si="2"/>
-        <v>45870</v>
-      </c>
-      <c r="E27" s="23">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G27" s="58">
-        <f t="shared" si="3"/>
-        <v>37522.809253303763</v>
-      </c>
-      <c r="H27" s="24">
-        <f>IF(J26&gt;0,
-      IF(YEARFRAC($B$7,D26)&gt;=$B$10,J26,H26)+N26+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D26)))*E26+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D26))))*YEARFRAC(D26,D27)+(YEARFRAC($B$7,D26)&lt;=$B$10)*$B$33*YEARFRAC(D26,D27),
-      0)</f>
-        <v>-16388.021976272845</v>
-      </c>
-      <c r="I27" s="24">
-        <f>IF(YEARFRAC($B$7,D26)&lt;$B$10,I26+M26-$B$33*YEARFRAC(D26,D27)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <f>IF(G27&gt;0,G27*((1+IF($B$11&gt;0,$B$11,F27)/100/365)^(365*YEARFRAC(D27,D28))-1),0)</f>
-        <v>188.07611569747596</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="26">
-        <f>IF(YEARFRAC($B$7,D27)&lt;$B$10,
-       (I27+MIN(0,MAX(-$B$13,H27)))*((1+$B$32/100/365)^(365*YEARFRAC(D27,D28))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D27)&gt;=$B$10,J27,H27)*((1+IF($B$11&gt;0,$B$11,F27)/100/365)^(365*YEARFRAC(D27,D28))-1)&gt;0,
-IF(YEARFRAC($B$7,D27)&gt;=$B$10,J27,H27)*((1+IF($B$11&gt;0,$B$11,F27)/100/365)^(365*YEARFRAC(D27,D28))-1),
-0)</f>
-        <v>0</v>
+        <v>308.69216468866472</v>
       </c>
       <c r="O27" s="2"/>
       <c r="U27" s="20"/>
@@ -3227,55 +3079,49 @@
       </c>
       <c r="B28" s="35">
         <f>B27-B24</f>
-        <v>12285.015006493708</v>
+        <v>15710.337350850437</v>
       </c>
       <c r="D28" s="22">
+        <f t="shared" si="7"/>
+        <v>45931</v>
+      </c>
+      <c r="E28" s="23">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G28" s="58">
+        <f t="shared" si="8"/>
+        <v>98436.378672092978</v>
+      </c>
+      <c r="H28" s="24">
+        <f t="shared" si="3"/>
+        <v>41978.778130842591</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="5"/>
+        <v>41978.778130842591</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" si="0"/>
+        <v>493.39407449465034</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="6"/>
+        <v>210.41083249596716</v>
+      </c>
+      <c r="M28" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="27">
         <f t="shared" si="2"/>
-        <v>45931</v>
-      </c>
-      <c r="E28" s="23">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G28" s="58">
-        <f t="shared" si="3"/>
-        <v>17794.218702334576</v>
-      </c>
-      <c r="H28" s="24">
-        <f>IF(J27&gt;0,
-      IF(YEARFRAC($B$7,D27)&gt;=$B$10,J27,H27)+N27+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D27)))*E27+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D27))))*YEARFRAC(D27,D28)+(YEARFRAC($B$7,D27)&lt;=$B$10)*$B$33*YEARFRAC(D27,D28),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="24">
-        <f>IF(YEARFRAC($B$7,D27)&lt;$B$10,I27+M27-$B$33*YEARFRAC(D27,D28)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="25">
-        <f>IF(G28&gt;0,G28*((1+IF($B$11&gt;0,$B$11,F28)/100/365)^(365*YEARFRAC(D28,D29))-1),0)</f>
-        <v>89.190217950213963</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="26">
-        <f>IF(YEARFRAC($B$7,D28)&lt;$B$10,
-       (I28+MIN(0,MAX(-$B$13,H28)))*((1+$B$32/100/365)^(365*YEARFRAC(D28,D29))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D28)&gt;=$B$10,J28,H28)*((1+IF($B$11&gt;0,$B$11,F28)/100/365)^(365*YEARFRAC(D28,D29))-1)&gt;0,
-IF(YEARFRAC($B$7,D28)&gt;=$B$10,J28,H28)*((1+IF($B$11&gt;0,$B$11,F28)/100/365)^(365*YEARFRAC(D28,D29))-1),
-0)</f>
-        <v>0</v>
+        <v>210.41083249596716</v>
       </c>
       <c r="O28" s="2"/>
       <c r="U28" s="20"/>
@@ -3285,57 +3131,51 @@
       <c r="A29" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="59">
         <f>YEARFRAC(B7,INDEX(D2:D85,COUNT(J2:J85)-COUNTIF(J2:J85,0)+1))</f>
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D29" s="22">
+        <f t="shared" si="7"/>
+        <v>45992</v>
+      </c>
+      <c r="E29" s="23">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G29" s="58">
+        <f t="shared" si="8"/>
+        <v>79013.106079920952</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="3"/>
+        <v>22272.522296671894</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="5"/>
+        <v>22272.522296671894</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" si="0"/>
+        <v>396.03852633703684</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" si="6"/>
+        <v>111.6368833704703</v>
+      </c>
+      <c r="M29" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="27">
         <f t="shared" si="2"/>
-        <v>45992</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1</v>
-      </c>
-      <c r="F29" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G29" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
-        <f>IF(J28&gt;0,
-      IF(YEARFRAC($B$7,D28)&gt;=$B$10,J28,H28)+N28+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D28)))*E28+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D28))))*YEARFRAC(D28,D29)+(YEARFRAC($B$7,D28)&lt;=$B$10)*$B$33*YEARFRAC(D28,D29),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="24">
-        <f>IF(YEARFRAC($B$7,D28)&lt;$B$10,I28+M28-$B$33*YEARFRAC(D28,D29)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="25">
-        <f>IF(G29&gt;0,G29*((1+IF($B$11&gt;0,$B$11,F29)/100/365)^(365*YEARFRAC(D29,D30))-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="26">
-        <f>IF(YEARFRAC($B$7,D29)&lt;$B$10,
-       (I29+MIN(0,MAX(-$B$13,H29)))*((1+$B$32/100/365)^(365*YEARFRAC(D29,D30))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D29)&gt;=$B$10,J29,H29)*((1+IF($B$11&gt;0,$B$11,F29)/100/365)^(365*YEARFRAC(D29,D30))-1)&gt;0,
-IF(YEARFRAC($B$7,D29)&gt;=$B$10,J29,H29)*((1+IF($B$11&gt;0,$B$11,F29)/100/365)^(365*YEARFRAC(D29,D30))-1),
-0)</f>
-        <v>0</v>
+        <v>111.6368833704703</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="4"/>
@@ -3353,107 +3193,95 @@
       <c r="A30" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="60">
         <f>YEARFRAC(B7,INDEX(D2:D85,COUNT(G2:G85)-COUNTIF(G2:G85,0)+1))</f>
-        <v>4.5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D30" s="22">
+        <f t="shared" si="7"/>
+        <v>46054</v>
+      </c>
+      <c r="E30" s="23">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G30" s="58">
+        <f t="shared" si="8"/>
+        <v>59492.477939591328</v>
+      </c>
+      <c r="H30" s="24">
+        <f t="shared" si="3"/>
+        <v>2467.4925133756988</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="5"/>
+        <v>2467.4925133756988</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="0"/>
+        <v>298.19500156723871</v>
+      </c>
+      <c r="L30" s="25">
+        <f t="shared" si="6"/>
+        <v>12.367848161247233</v>
+      </c>
+      <c r="M30" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="27">
         <f t="shared" si="2"/>
-        <v>46054</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G30" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="24">
-        <f>IF(J29&gt;0,
-      IF(YEARFRAC($B$7,D29)&gt;=$B$10,J29,H29)+N29+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D29)))*E29+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D29))))*YEARFRAC(D29,D30)+(YEARFRAC($B$7,D29)&lt;=$B$10)*$B$33*YEARFRAC(D29,D30),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="24">
-        <f>IF(YEARFRAC($B$7,D29)&lt;$B$10,I29+M29-$B$33*YEARFRAC(D29,D30)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <f>IF(G30&gt;0,G30*((1+IF($B$11&gt;0,$B$11,F30)/100/365)^(365*YEARFRAC(D30,D31))-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="26">
-        <f>IF(YEARFRAC($B$7,D30)&lt;$B$10,
-       (I30+MIN(0,MAX(-$B$13,H30)))*((1+$B$32/100/365)^(365*YEARFRAC(D30,D31))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D30)&gt;=$B$10,J30,H30)*((1+IF($B$11&gt;0,$B$11,F30)/100/365)^(365*YEARFRAC(D30,D31))-1)&gt;0,
-IF(YEARFRAC($B$7,D30)&gt;=$B$10,J30,H30)*((1+IF($B$11&gt;0,$B$11,F30)/100/365)^(365*YEARFRAC(D30,D31))-1),
-0)</f>
-        <v>0</v>
+        <v>12.367848161247233</v>
       </c>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D31" s="22">
+        <f t="shared" si="7"/>
+        <v>46113</v>
+      </c>
+      <c r="E31" s="23">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G31" s="58">
+        <f t="shared" si="8"/>
+        <v>39874.006274491905</v>
+      </c>
+      <c r="H31" s="24">
+        <f t="shared" si="3"/>
+        <v>-17436.806305129718</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" si="0"/>
+        <v>199.86105429307449</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="27">
         <f t="shared" si="2"/>
-        <v>46113</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G31" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="24">
-        <f>IF(J30&gt;0,
-      IF(YEARFRAC($B$7,D30)&gt;=$B$10,J30,H30)+N30+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D30)))*E30+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D30))))*YEARFRAC(D30,D31)+(YEARFRAC($B$7,D30)&lt;=$B$10)*$B$33*YEARFRAC(D30,D31),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="24">
-        <f>IF(YEARFRAC($B$7,D30)&lt;$B$10,I30+M30-$B$33*YEARFRAC(D30,D31)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="25">
-        <f>IF(G31&gt;0,G31*((1+IF($B$11&gt;0,$B$11,F31)/100/365)^(365*YEARFRAC(D31,D32))-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="26">
-        <f>IF(YEARFRAC($B$7,D31)&lt;$B$10,
-       (I31+MIN(0,MAX(-$B$13,H31)))*((1+$B$32/100/365)^(365*YEARFRAC(D31,D32))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D31)&gt;=$B$10,J31,H31)*((1+IF($B$11&gt;0,$B$11,F31)/100/365)^(365*YEARFRAC(D31,D32))-1)&gt;0,
-IF(YEARFRAC($B$7,D31)&gt;=$B$10,J31,H31)*((1+IF($B$11&gt;0,$B$11,F31)/100/365)^(365*YEARFRAC(D31,D32))-1),
-0)</f>
         <v>0</v>
       </c>
       <c r="O31" s="2"/>
@@ -3467,51 +3295,45 @@
         <v>1.9</v>
       </c>
       <c r="D32" s="22">
+        <f t="shared" si="7"/>
+        <v>46174</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G32" s="58">
+        <f t="shared" si="8"/>
+        <v>20157.200662118317</v>
+      </c>
+      <c r="H32" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" si="0"/>
+        <v>101.03422636278253</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="27">
         <f t="shared" si="2"/>
-        <v>46174</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G32" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="24">
-        <f>IF(J31&gt;0,
-      IF(YEARFRAC($B$7,D31)&gt;=$B$10,J31,H31)+N31+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D31)))*E31+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D31))))*YEARFRAC(D31,D32)+(YEARFRAC($B$7,D31)&lt;=$B$10)*$B$33*YEARFRAC(D31,D32),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="24">
-        <f>IF(YEARFRAC($B$7,D31)&lt;$B$10,I31+M31-$B$33*YEARFRAC(D31,D32)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <f>IF(G32&gt;0,G32*((1+IF($B$11&gt;0,$B$11,F32)/100/365)^(365*YEARFRAC(D32,D33))-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="26">
-        <f>IF(YEARFRAC($B$7,D32)&lt;$B$10,
-       (I32+MIN(0,MAX(-$B$13,H32)))*((1+$B$32/100/365)^(365*YEARFRAC(D32,D33))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D32)&gt;=$B$10,J32,H32)*((1+IF($B$11&gt;0,$B$11,F32)/100/365)^(365*YEARFRAC(D32,D33))-1)&gt;0,
-IF(YEARFRAC($B$7,D32)&gt;=$B$10,J32,H32)*((1+IF($B$11&gt;0,$B$11,F32)/100/365)^(365*YEARFRAC(D32,D33))-1),
-0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="2"/>
@@ -3525,58 +3347,52 @@
         <v>1276.2360169562739</v>
       </c>
       <c r="D33" s="22">
+        <f t="shared" si="7"/>
+        <v>46235</v>
+      </c>
+      <c r="E33" s="23">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23">
+        <v>4.25</v>
+      </c>
+      <c r="G33" s="58">
+        <f t="shared" si="8"/>
+        <v>341.56822181443567</v>
+      </c>
+      <c r="H33" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" si="0"/>
+        <v>1.712047303571673</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="27">
         <f t="shared" si="2"/>
-        <v>46235</v>
-      </c>
-      <c r="E33" s="23">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23">
-        <v>4.25</v>
-      </c>
-      <c r="G33" s="58">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="24">
-        <f>IF(J32&gt;0,
-      IF(YEARFRAC($B$7,D32)&gt;=$B$10,J32,H32)+N32+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D32)))*E32+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D32))))*YEARFRAC(D32,D33)+(YEARFRAC($B$7,D32)&lt;=$B$10)*$B$33*YEARFRAC(D32,D33),
-      0)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="24">
-        <f>IF(YEARFRAC($B$7,D32)&lt;$B$10,I32+M32-$B$33*YEARFRAC(D32,D33)*12, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="25">
-        <f>IF(G33&gt;0,G33*((1+IF($B$11&gt;0,$B$11,F33)/100/365)^(365*YEARFRAC(D33,D34))-1),0)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="26">
-        <f>IF(YEARFRAC($B$7,D33)&lt;$B$10,
-       (I33+MIN(0,MAX(-$B$13,H33)))*((1+$B$32/100/365)^(365*YEARFRAC(D33,D34))-1),
-       0)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D33)&gt;=$B$10,J33,H33)*((1+IF($B$11&gt;0,$B$11,F33)/100/365)^(365*YEARFRAC(D33,D34))-1)&gt;0,
-IF(YEARFRAC($B$7,D33)&gt;=$B$10,J33,H33)*((1+IF($B$11&gt;0,$B$11,F33)/100/365)^(365*YEARFRAC(D33,D34))-1),
-0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D34" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46296</v>
       </c>
       <c r="E34" s="23">
@@ -3586,39 +3402,37 @@
         <v>4.25</v>
       </c>
       <c r="G34" s="58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="24">
-        <f>IF(J33&gt;0,
-      IF(YEARFRAC($B$7,D33)&gt;=$B$10,J33,H33)+N33+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D33)))*E33+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D33))))*YEARFRAC(D33,D34)+(YEARFRAC($B$7,D33)&lt;=$B$10)*$B$33*YEARFRAC(D33,D34),
-      0)</f>
-        <v>0</v>
-      </c>
       <c r="I34" s="24">
-        <f>IF(YEARFRAC($B$7,D33)&lt;$B$10,I33+M33-$B$33*YEARFRAC(D33,D34)*12, 0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J34" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K34" s="25">
-        <f>IF(G34&gt;0,G34*((1+IF($B$11&gt;0,$B$11,F34)/100/365)^(365*YEARFRAC(D34,D35))-1),0)</f>
+        <f t="shared" ref="K34:K65" si="9">IF(G34&gt;0,G34*((1+IF($B$11&gt;0,$B$11,F34)/100/365)^(365*YEARFRAC(D34,D35))-1),0)</f>
         <v>0</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M34" s="26">
-        <f>IF(YEARFRAC($B$7,D34)&lt;$B$10,
+        <f t="shared" ref="M34:M65" si="10">IF(YEARFRAC($B$7,D34)&lt;$B$10,
        (I34+MIN(0,MAX(-$B$13,H34)))*((1+$B$32/100/365)^(365*YEARFRAC(D34,D35))-1),
        0)</f>
         <v>0</v>
       </c>
       <c r="N34" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D34)&gt;=$B$10,J34,H34)*((1+IF($B$11&gt;0,$B$11,F34)/100/365)^(365*YEARFRAC(D34,D35))-1)&gt;0,
+        <f t="shared" ref="N34:N65" si="11">IF(IF(YEARFRAC($B$7,D34)&gt;=$B$10,J34,H34)*((1+IF($B$11&gt;0,$B$11,F34)/100/365)^(365*YEARFRAC(D34,D35))-1)&gt;0,
 IF(YEARFRAC($B$7,D34)&gt;=$B$10,J34,H34)*((1+IF($B$11&gt;0,$B$11,F34)/100/365)^(365*YEARFRAC(D34,D35))-1),
 0)</f>
         <v>0</v>
@@ -3627,7 +3441,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D35" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46357</v>
       </c>
       <c r="E35" s="23">
@@ -3637,48 +3451,44 @@
         <v>4.25</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H35" s="24">
-        <f>IF(J34&gt;0,
+        <f t="shared" ref="H35:H66" si="12">IF(J34&gt;0,
       IF(YEARFRAC($B$7,D34)&gt;=$B$10,J34,H34)+N34+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D34)))*E34+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D34))))*YEARFRAC(D34,D35)+(YEARFRAC($B$7,D34)&lt;=$B$10)*$B$33*YEARFRAC(D34,D35),
       0)</f>
         <v>0</v>
       </c>
       <c r="I35" s="24">
-        <f>IF(YEARFRAC($B$7,D34)&lt;$B$10,I34+M34-$B$33*YEARFRAC(D34,D35)*12, 0)</f>
+        <f t="shared" ref="I35:I66" si="13">IF(YEARFRAC($B$7,D34)&lt;$B$10,I34+M34-$B$33*YEARFRAC(D34,D35)*12, 0)</f>
         <v>0</v>
       </c>
       <c r="J35" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K35" s="25">
-        <f>IF(G35&gt;0,G35*((1+IF($B$11&gt;0,$B$11,F35)/100/365)^(365*YEARFRAC(D35,D36))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L35" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M35" s="26">
-        <f>IF(YEARFRAC($B$7,D35)&lt;$B$10,
-       (I35+MIN(0,MAX(-$B$13,H35)))*((1+$B$32/100/365)^(365*YEARFRAC(D35,D36))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N35" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D35)&gt;=$B$10,J35,H35)*((1+IF($B$11&gt;0,$B$11,F35)/100/365)^(365*YEARFRAC(D35,D36))-1)&gt;0,
-IF(YEARFRAC($B$7,D35)&gt;=$B$10,J35,H35)*((1+IF($B$11&gt;0,$B$11,F35)/100/365)^(365*YEARFRAC(D35,D36))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D36" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46419</v>
       </c>
       <c r="E36" s="23">
@@ -3688,48 +3498,42 @@
         <v>4.25</v>
       </c>
       <c r="G36" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="24">
-        <f>IF(J35&gt;0,
-      IF(YEARFRAC($B$7,D35)&gt;=$B$10,J35,H35)+N35+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D35)))*E35+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D35))))*YEARFRAC(D35,D36)+(YEARFRAC($B$7,D35)&lt;=$B$10)*$B$33*YEARFRAC(D35,D36),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I36" s="24">
-        <f>IF(YEARFRAC($B$7,D35)&lt;$B$10,I35+M35-$B$33*YEARFRAC(D35,D36)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J36" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K36" s="25">
-        <f>IF(G36&gt;0,G36*((1+IF($B$11&gt;0,$B$11,F36)/100/365)^(365*YEARFRAC(D36,D37))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M36" s="26">
-        <f>IF(YEARFRAC($B$7,D36)&lt;$B$10,
-       (I36+MIN(0,MAX(-$B$13,H36)))*((1+$B$32/100/365)^(365*YEARFRAC(D36,D37))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N36" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D36)&gt;=$B$10,J36,H36)*((1+IF($B$11&gt;0,$B$11,F36)/100/365)^(365*YEARFRAC(D36,D37))-1)&gt;0,
-IF(YEARFRAC($B$7,D36)&gt;=$B$10,J36,H36)*((1+IF($B$11&gt;0,$B$11,F36)/100/365)^(365*YEARFRAC(D36,D37))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D37" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46478</v>
       </c>
       <c r="E37" s="23">
@@ -3739,48 +3543,42 @@
         <v>4.25</v>
       </c>
       <c r="G37" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H37" s="24">
-        <f>IF(J36&gt;0,
-      IF(YEARFRAC($B$7,D36)&gt;=$B$10,J36,H36)+N36+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D36)))*E36+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D36))))*YEARFRAC(D36,D37)+(YEARFRAC($B$7,D36)&lt;=$B$10)*$B$33*YEARFRAC(D36,D37),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I37" s="24">
-        <f>IF(YEARFRAC($B$7,D36)&lt;$B$10,I36+M36-$B$33*YEARFRAC(D36,D37)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J37" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K37" s="25">
-        <f>IF(G37&gt;0,G37*((1+IF($B$11&gt;0,$B$11,F37)/100/365)^(365*YEARFRAC(D37,D38))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M37" s="26">
-        <f>IF(YEARFRAC($B$7,D37)&lt;$B$10,
-       (I37+MIN(0,MAX(-$B$13,H37)))*((1+$B$32/100/365)^(365*YEARFRAC(D37,D38))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N37" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D37)&gt;=$B$10,J37,H37)*((1+IF($B$11&gt;0,$B$11,F37)/100/365)^(365*YEARFRAC(D37,D38))-1)&gt;0,
-IF(YEARFRAC($B$7,D37)&gt;=$B$10,J37,H37)*((1+IF($B$11&gt;0,$B$11,F37)/100/365)^(365*YEARFRAC(D37,D38))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D38" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46539</v>
       </c>
       <c r="E38" s="23">
@@ -3790,48 +3588,42 @@
         <v>4.25</v>
       </c>
       <c r="G38" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H38" s="24">
-        <f>IF(J37&gt;0,
-      IF(YEARFRAC($B$7,D37)&gt;=$B$10,J37,H37)+N37+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D37)))*E37+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D37))))*YEARFRAC(D37,D38)+(YEARFRAC($B$7,D37)&lt;=$B$10)*$B$33*YEARFRAC(D37,D38),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I38" s="24">
-        <f>IF(YEARFRAC($B$7,D37)&lt;$B$10,I37+M37-$B$33*YEARFRAC(D37,D38)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K38" s="25">
-        <f>IF(G38&gt;0,G38*((1+IF($B$11&gt;0,$B$11,F38)/100/365)^(365*YEARFRAC(D38,D39))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L38" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M38" s="26">
-        <f>IF(YEARFRAC($B$7,D38)&lt;$B$10,
-       (I38+MIN(0,MAX(-$B$13,H38)))*((1+$B$32/100/365)^(365*YEARFRAC(D38,D39))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N38" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D38)&gt;=$B$10,J38,H38)*((1+IF($B$11&gt;0,$B$11,F38)/100/365)^(365*YEARFRAC(D38,D39))-1)&gt;0,
-IF(YEARFRAC($B$7,D38)&gt;=$B$10,J38,H38)*((1+IF($B$11&gt;0,$B$11,F38)/100/365)^(365*YEARFRAC(D38,D39))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D39" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46600</v>
       </c>
       <c r="E39" s="23">
@@ -3841,48 +3633,42 @@
         <v>4.25</v>
       </c>
       <c r="G39" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H39" s="24">
-        <f>IF(J38&gt;0,
-      IF(YEARFRAC($B$7,D38)&gt;=$B$10,J38,H38)+N38+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D38)))*E38+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D38))))*YEARFRAC(D38,D39)+(YEARFRAC($B$7,D38)&lt;=$B$10)*$B$33*YEARFRAC(D38,D39),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I39" s="24">
-        <f>IF(YEARFRAC($B$7,D38)&lt;$B$10,I38+M38-$B$33*YEARFRAC(D38,D39)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J39" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K39" s="25">
-        <f>IF(G39&gt;0,G39*((1+IF($B$11&gt;0,$B$11,F39)/100/365)^(365*YEARFRAC(D39,D40))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L39" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M39" s="26">
-        <f>IF(YEARFRAC($B$7,D39)&lt;$B$10,
-       (I39+MIN(0,MAX(-$B$13,H39)))*((1+$B$32/100/365)^(365*YEARFRAC(D39,D40))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N39" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D39)&gt;=$B$10,J39,H39)*((1+IF($B$11&gt;0,$B$11,F39)/100/365)^(365*YEARFRAC(D39,D40))-1)&gt;0,
-IF(YEARFRAC($B$7,D39)&gt;=$B$10,J39,H39)*((1+IF($B$11&gt;0,$B$11,F39)/100/365)^(365*YEARFRAC(D39,D40))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D40" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46661</v>
       </c>
       <c r="E40" s="23">
@@ -3892,48 +3678,42 @@
         <v>4.25</v>
       </c>
       <c r="G40" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H40" s="24">
-        <f>IF(J39&gt;0,
-      IF(YEARFRAC($B$7,D39)&gt;=$B$10,J39,H39)+N39+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D39)))*E39+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D39))))*YEARFRAC(D39,D40)+(YEARFRAC($B$7,D39)&lt;=$B$10)*$B$33*YEARFRAC(D39,D40),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I40" s="24">
-        <f>IF(YEARFRAC($B$7,D39)&lt;$B$10,I39+M39-$B$33*YEARFRAC(D39,D40)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J40" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K40" s="25">
-        <f>IF(G40&gt;0,G40*((1+IF($B$11&gt;0,$B$11,F40)/100/365)^(365*YEARFRAC(D40,D41))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L40" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M40" s="26">
-        <f>IF(YEARFRAC($B$7,D40)&lt;$B$10,
-       (I40+MIN(0,MAX(-$B$13,H40)))*((1+$B$32/100/365)^(365*YEARFRAC(D40,D41))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N40" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D40)&gt;=$B$10,J40,H40)*((1+IF($B$11&gt;0,$B$11,F40)/100/365)^(365*YEARFRAC(D40,D41))-1)&gt;0,
-IF(YEARFRAC($B$7,D40)&gt;=$B$10,J40,H40)*((1+IF($B$11&gt;0,$B$11,F40)/100/365)^(365*YEARFRAC(D40,D41))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D41" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46722</v>
       </c>
       <c r="E41" s="23">
@@ -3943,47 +3723,41 @@
         <v>4.25</v>
       </c>
       <c r="G41" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H41" s="24">
-        <f>IF(J40&gt;0,
-      IF(YEARFRAC($B$7,D40)&gt;=$B$10,J40,H40)+N40+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D40)))*E40+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D40))))*YEARFRAC(D40,D41)+(YEARFRAC($B$7,D40)&lt;=$B$10)*$B$33*YEARFRAC(D40,D41),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I41" s="24">
-        <f>IF(YEARFRAC($B$7,D40)&lt;$B$10,I40+M40-$B$33*YEARFRAC(D40,D41)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J41" s="24">
-        <f t="shared" ref="J41:J46" si="4">IF(H41+I41&gt;0, H41+I41,0)</f>
+        <f t="shared" ref="J41:J46" si="14">IF(H41+I41&gt;0, H41+I41,0)</f>
         <v>0</v>
       </c>
       <c r="K41" s="25">
-        <f>IF(G41&gt;0,G41*((1+IF($B$11&gt;0,$B$11,F41)/100/365)^(365*YEARFRAC(D41,D42))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L41" s="25">
-        <f t="shared" ref="L41:L46" si="5">SUM(M41:N41)</f>
+        <f t="shared" ref="L41:L46" si="15">SUM(M41:N41)</f>
         <v>0</v>
       </c>
       <c r="M41" s="26">
-        <f>IF(YEARFRAC($B$7,D41)&lt;$B$10,
-       (I41+MIN(0,MAX(-$B$13,H41)))*((1+$B$32/100/365)^(365*YEARFRAC(D41,D42))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N41" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D41)&gt;=$B$10,J41,H41)*((1+IF($B$11&gt;0,$B$11,F41)/100/365)^(365*YEARFRAC(D41,D42))-1)&gt;0,
-IF(YEARFRAC($B$7,D41)&gt;=$B$10,J41,H41)*((1+IF($B$11&gt;0,$B$11,F41)/100/365)^(365*YEARFRAC(D41,D42))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D42" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46784</v>
       </c>
       <c r="E42" s="23">
@@ -3993,47 +3767,41 @@
         <v>4.25</v>
       </c>
       <c r="G42" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H42" s="24">
-        <f>IF(J41&gt;0,
-      IF(YEARFRAC($B$7,D41)&gt;=$B$10,J41,H41)+N41+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D41)))*E41+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D41))))*YEARFRAC(D41,D42)+(YEARFRAC($B$7,D41)&lt;=$B$10)*$B$33*YEARFRAC(D41,D42),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I42" s="24">
-        <f>IF(YEARFRAC($B$7,D41)&lt;$B$10,I41+M41-$B$33*YEARFRAC(D41,D42)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J42" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K42" s="25">
-        <f>IF(G42&gt;0,G42*((1+IF($B$11&gt;0,$B$11,F42)/100/365)^(365*YEARFRAC(D42,D43))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M42" s="26">
-        <f>IF(YEARFRAC($B$7,D42)&lt;$B$10,
-       (I42+MIN(0,MAX(-$B$13,H42)))*((1+$B$32/100/365)^(365*YEARFRAC(D42,D43))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N42" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D42)&gt;=$B$10,J42,H42)*((1+IF($B$11&gt;0,$B$11,F42)/100/365)^(365*YEARFRAC(D42,D43))-1)&gt;0,
-IF(YEARFRAC($B$7,D42)&gt;=$B$10,J42,H42)*((1+IF($B$11&gt;0,$B$11,F42)/100/365)^(365*YEARFRAC(D42,D43))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D43" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46844</v>
       </c>
       <c r="E43" s="23">
@@ -4043,47 +3811,41 @@
         <v>4.25</v>
       </c>
       <c r="G43" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H43" s="24">
-        <f>IF(J42&gt;0,
-      IF(YEARFRAC($B$7,D42)&gt;=$B$10,J42,H42)+N42+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D42)))*E42+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D42))))*YEARFRAC(D42,D43)+(YEARFRAC($B$7,D42)&lt;=$B$10)*$B$33*YEARFRAC(D42,D43),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I43" s="24">
-        <f>IF(YEARFRAC($B$7,D42)&lt;$B$10,I42+M42-$B$33*YEARFRAC(D42,D43)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J43" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K43" s="25">
-        <f>IF(G43&gt;0,G43*((1+IF($B$11&gt;0,$B$11,F43)/100/365)^(365*YEARFRAC(D43,D44))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L43" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M43" s="26">
-        <f>IF(YEARFRAC($B$7,D43)&lt;$B$10,
-       (I43+MIN(0,MAX(-$B$13,H43)))*((1+$B$32/100/365)^(365*YEARFRAC(D43,D44))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N43" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D43)&gt;=$B$10,J43,H43)*((1+IF($B$11&gt;0,$B$11,F43)/100/365)^(365*YEARFRAC(D43,D44))-1)&gt;0,
-IF(YEARFRAC($B$7,D43)&gt;=$B$10,J43,H43)*((1+IF($B$11&gt;0,$B$11,F43)/100/365)^(365*YEARFRAC(D43,D44))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D44" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46905</v>
       </c>
       <c r="E44" s="23">
@@ -4093,47 +3855,41 @@
         <v>4.25</v>
       </c>
       <c r="G44" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H44" s="24">
-        <f>IF(J43&gt;0,
-      IF(YEARFRAC($B$7,D43)&gt;=$B$10,J43,H43)+N43+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D43)))*E43+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D43))))*YEARFRAC(D43,D44)+(YEARFRAC($B$7,D43)&lt;=$B$10)*$B$33*YEARFRAC(D43,D44),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I44" s="24">
-        <f>IF(YEARFRAC($B$7,D43)&lt;$B$10,I43+M43-$B$33*YEARFRAC(D43,D44)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J44" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K44" s="25">
-        <f>IF(G44&gt;0,G44*((1+IF($B$11&gt;0,$B$11,F44)/100/365)^(365*YEARFRAC(D44,D45))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L44" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M44" s="26">
-        <f>IF(YEARFRAC($B$7,D44)&lt;$B$10,
-       (I44+MIN(0,MAX(-$B$13,H44)))*((1+$B$32/100/365)^(365*YEARFRAC(D44,D45))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N44" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D44)&gt;=$B$10,J44,H44)*((1+IF($B$11&gt;0,$B$11,F44)/100/365)^(365*YEARFRAC(D44,D45))-1)&gt;0,
-IF(YEARFRAC($B$7,D44)&gt;=$B$10,J44,H44)*((1+IF($B$11&gt;0,$B$11,F44)/100/365)^(365*YEARFRAC(D44,D45))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D45" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>46966</v>
       </c>
       <c r="E45" s="23">
@@ -4143,47 +3899,41 @@
         <v>4.25</v>
       </c>
       <c r="G45" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H45" s="24">
-        <f>IF(J44&gt;0,
-      IF(YEARFRAC($B$7,D44)&gt;=$B$10,J44,H44)+N44+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D44)))*E44+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D44))))*YEARFRAC(D44,D45)+(YEARFRAC($B$7,D44)&lt;=$B$10)*$B$33*YEARFRAC(D44,D45),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I45" s="24">
-        <f>IF(YEARFRAC($B$7,D44)&lt;$B$10,I44+M44-$B$33*YEARFRAC(D44,D45)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J45" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K45" s="25">
-        <f>IF(G45&gt;0,G45*((1+IF($B$11&gt;0,$B$11,F45)/100/365)^(365*YEARFRAC(D45,D46))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L45" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M45" s="26">
-        <f>IF(YEARFRAC($B$7,D45)&lt;$B$10,
-       (I45+MIN(0,MAX(-$B$13,H45)))*((1+$B$32/100/365)^(365*YEARFRAC(D45,D46))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N45" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D45)&gt;=$B$10,J45,H45)*((1+IF($B$11&gt;0,$B$11,F45)/100/365)^(365*YEARFRAC(D45,D46))-1)&gt;0,
-IF(YEARFRAC($B$7,D45)&gt;=$B$10,J45,H45)*((1+IF($B$11&gt;0,$B$11,F45)/100/365)^(365*YEARFRAC(D45,D46))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D46" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47027</v>
       </c>
       <c r="E46" s="23">
@@ -4193,47 +3943,41 @@
         <v>4.25</v>
       </c>
       <c r="G46" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H46" s="24">
-        <f>IF(J45&gt;0,
-      IF(YEARFRAC($B$7,D45)&gt;=$B$10,J45,H45)+N45+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D45)))*E45+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D45))))*YEARFRAC(D45,D46)+(YEARFRAC($B$7,D45)&lt;=$B$10)*$B$33*YEARFRAC(D45,D46),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I46" s="24">
-        <f>IF(YEARFRAC($B$7,D45)&lt;$B$10,I45+M45-$B$33*YEARFRAC(D45,D46)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K46" s="25">
-        <f>IF(G46&gt;0,G46*((1+IF($B$11&gt;0,$B$11,F46)/100/365)^(365*YEARFRAC(D46,D47))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L46" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M46" s="26">
-        <f>IF(YEARFRAC($B$7,D46)&lt;$B$10,
-       (I46+MIN(0,MAX(-$B$13,H46)))*((1+$B$32/100/365)^(365*YEARFRAC(D46,D47))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N46" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D46)&gt;=$B$10,J46,H46)*((1+IF($B$11&gt;0,$B$11,F46)/100/365)^(365*YEARFRAC(D46,D47))-1)&gt;0,
-IF(YEARFRAC($B$7,D46)&gt;=$B$10,J46,H46)*((1+IF($B$11&gt;0,$B$11,F46)/100/365)^(365*YEARFRAC(D46,D47))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D47" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47088</v>
       </c>
       <c r="E47" s="23">
@@ -4243,47 +3987,41 @@
         <v>4.25</v>
       </c>
       <c r="G47" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H47" s="24">
-        <f>IF(J46&gt;0,
-      IF(YEARFRAC($B$7,D46)&gt;=$B$10,J46,H46)+N46+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D46)))*E46+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D46))))*YEARFRAC(D46,D47)+(YEARFRAC($B$7,D46)&lt;=$B$10)*$B$33*YEARFRAC(D46,D47),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I47" s="24">
-        <f>IF(YEARFRAC($B$7,D46)&lt;$B$10,I46+M46-$B$33*YEARFRAC(D46,D47)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J47" s="24">
-        <f t="shared" ref="J47:J85" si="6">IF(H47+I47&gt;0, H47+I47,0)</f>
+        <f t="shared" ref="J47:J85" si="16">IF(H47+I47&gt;0, H47+I47,0)</f>
         <v>0</v>
       </c>
       <c r="K47" s="25">
-        <f>IF(G47&gt;0,G47*((1+IF($B$11&gt;0,$B$11,F47)/100/365)^(365*YEARFRAC(D47,D48))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L47" s="25">
-        <f t="shared" ref="L47:L85" si="7">SUM(M47:N47)</f>
+        <f t="shared" ref="L47:L85" si="17">SUM(M47:N47)</f>
         <v>0</v>
       </c>
       <c r="M47" s="26">
-        <f>IF(YEARFRAC($B$7,D47)&lt;$B$10,
-       (I47+MIN(0,MAX(-$B$13,H47)))*((1+$B$32/100/365)^(365*YEARFRAC(D47,D48))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N47" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D47)&gt;=$B$10,J47,H47)*((1+IF($B$11&gt;0,$B$11,F47)/100/365)^(365*YEARFRAC(D47,D48))-1)&gt;0,
-IF(YEARFRAC($B$7,D47)&gt;=$B$10,J47,H47)*((1+IF($B$11&gt;0,$B$11,F47)/100/365)^(365*YEARFRAC(D47,D48))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D48" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47150</v>
       </c>
       <c r="E48" s="23">
@@ -4293,47 +4031,41 @@
         <v>4.25</v>
       </c>
       <c r="G48" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H48" s="24">
-        <f>IF(J47&gt;0,
-      IF(YEARFRAC($B$7,D47)&gt;=$B$10,J47,H47)+N47+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D47)))*E47+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D47))))*YEARFRAC(D47,D48)+(YEARFRAC($B$7,D47)&lt;=$B$10)*$B$33*YEARFRAC(D47,D48),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I48" s="24">
-        <f>IF(YEARFRAC($B$7,D47)&lt;$B$10,I47+M47-$B$33*YEARFRAC(D47,D48)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J48" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K48" s="25">
-        <f>IF(G48&gt;0,G48*((1+IF($B$11&gt;0,$B$11,F48)/100/365)^(365*YEARFRAC(D48,D49))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L48" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M48" s="26">
-        <f>IF(YEARFRAC($B$7,D48)&lt;$B$10,
-       (I48+MIN(0,MAX(-$B$13,H48)))*((1+$B$32/100/365)^(365*YEARFRAC(D48,D49))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N48" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D48)&gt;=$B$10,J48,H48)*((1+IF($B$11&gt;0,$B$11,F48)/100/365)^(365*YEARFRAC(D48,D49))-1)&gt;0,
-IF(YEARFRAC($B$7,D48)&gt;=$B$10,J48,H48)*((1+IF($B$11&gt;0,$B$11,F48)/100/365)^(365*YEARFRAC(D48,D49))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47209</v>
       </c>
       <c r="E49" s="23">
@@ -4343,47 +4075,41 @@
         <v>4.25</v>
       </c>
       <c r="G49" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H49" s="24">
-        <f>IF(J48&gt;0,
-      IF(YEARFRAC($B$7,D48)&gt;=$B$10,J48,H48)+N48+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D48)))*E48+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D48))))*YEARFRAC(D48,D49)+(YEARFRAC($B$7,D48)&lt;=$B$10)*$B$33*YEARFRAC(D48,D49),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I49" s="24">
-        <f>IF(YEARFRAC($B$7,D48)&lt;$B$10,I48+M48-$B$33*YEARFRAC(D48,D49)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J49" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K49" s="25">
-        <f>IF(G49&gt;0,G49*((1+IF($B$11&gt;0,$B$11,F49)/100/365)^(365*YEARFRAC(D49,D50))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L49" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M49" s="26">
-        <f>IF(YEARFRAC($B$7,D49)&lt;$B$10,
-       (I49+MIN(0,MAX(-$B$13,H49)))*((1+$B$32/100/365)^(365*YEARFRAC(D49,D50))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N49" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D49)&gt;=$B$10,J49,H49)*((1+IF($B$11&gt;0,$B$11,F49)/100/365)^(365*YEARFRAC(D49,D50))-1)&gt;0,
-IF(YEARFRAC($B$7,D49)&gt;=$B$10,J49,H49)*((1+IF($B$11&gt;0,$B$11,F49)/100/365)^(365*YEARFRAC(D49,D50))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47270</v>
       </c>
       <c r="E50" s="23">
@@ -4393,47 +4119,41 @@
         <v>4.25</v>
       </c>
       <c r="G50" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="24">
-        <f>IF(J49&gt;0,
-      IF(YEARFRAC($B$7,D49)&gt;=$B$10,J49,H49)+N49+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D49)))*E49+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D49))))*YEARFRAC(D49,D50)+(YEARFRAC($B$7,D49)&lt;=$B$10)*$B$33*YEARFRAC(D49,D50),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I50" s="24">
-        <f>IF(YEARFRAC($B$7,D49)&lt;$B$10,I49+M49-$B$33*YEARFRAC(D49,D50)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J50" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K50" s="25">
-        <f>IF(G50&gt;0,G50*((1+IF($B$11&gt;0,$B$11,F50)/100/365)^(365*YEARFRAC(D50,D51))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L50" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M50" s="26">
-        <f>IF(YEARFRAC($B$7,D50)&lt;$B$10,
-       (I50+MIN(0,MAX(-$B$13,H50)))*((1+$B$32/100/365)^(365*YEARFRAC(D50,D51))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N50" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D50)&gt;=$B$10,J50,H50)*((1+IF($B$11&gt;0,$B$11,F50)/100/365)^(365*YEARFRAC(D50,D51))-1)&gt;0,
-IF(YEARFRAC($B$7,D50)&gt;=$B$10,J50,H50)*((1+IF($B$11&gt;0,$B$11,F50)/100/365)^(365*YEARFRAC(D50,D51))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47331</v>
       </c>
       <c r="E51" s="23">
@@ -4443,47 +4163,41 @@
         <v>4.25</v>
       </c>
       <c r="G51" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H51" s="24">
-        <f>IF(J50&gt;0,
-      IF(YEARFRAC($B$7,D50)&gt;=$B$10,J50,H50)+N50+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D50)))*E50+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D50))))*YEARFRAC(D50,D51)+(YEARFRAC($B$7,D50)&lt;=$B$10)*$B$33*YEARFRAC(D50,D51),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I51" s="24">
-        <f>IF(YEARFRAC($B$7,D50)&lt;$B$10,I50+M50-$B$33*YEARFRAC(D50,D51)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J51" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K51" s="25">
-        <f>IF(G51&gt;0,G51*((1+IF($B$11&gt;0,$B$11,F51)/100/365)^(365*YEARFRAC(D51,D52))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L51" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M51" s="26">
-        <f>IF(YEARFRAC($B$7,D51)&lt;$B$10,
-       (I51+MIN(0,MAX(-$B$13,H51)))*((1+$B$32/100/365)^(365*YEARFRAC(D51,D52))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N51" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D51)&gt;=$B$10,J51,H51)*((1+IF($B$11&gt;0,$B$11,F51)/100/365)^(365*YEARFRAC(D51,D52))-1)&gt;0,
-IF(YEARFRAC($B$7,D51)&gt;=$B$10,J51,H51)*((1+IF($B$11&gt;0,$B$11,F51)/100/365)^(365*YEARFRAC(D51,D52))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47392</v>
       </c>
       <c r="E52" s="23">
@@ -4493,47 +4207,41 @@
         <v>4.25</v>
       </c>
       <c r="G52" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H52" s="24">
-        <f>IF(J51&gt;0,
-      IF(YEARFRAC($B$7,D51)&gt;=$B$10,J51,H51)+N51+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D51)))*E51+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D51))))*YEARFRAC(D51,D52)+(YEARFRAC($B$7,D51)&lt;=$B$10)*$B$33*YEARFRAC(D51,D52),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I52" s="24">
-        <f>IF(YEARFRAC($B$7,D51)&lt;$B$10,I51+M51-$B$33*YEARFRAC(D51,D52)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J52" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K52" s="25">
-        <f>IF(G52&gt;0,G52*((1+IF($B$11&gt;0,$B$11,F52)/100/365)^(365*YEARFRAC(D52,D53))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L52" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M52" s="26">
-        <f>IF(YEARFRAC($B$7,D52)&lt;$B$10,
-       (I52+MIN(0,MAX(-$B$13,H52)))*((1+$B$32/100/365)^(365*YEARFRAC(D52,D53))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N52" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D52)&gt;=$B$10,J52,H52)*((1+IF($B$11&gt;0,$B$11,F52)/100/365)^(365*YEARFRAC(D52,D53))-1)&gt;0,
-IF(YEARFRAC($B$7,D52)&gt;=$B$10,J52,H52)*((1+IF($B$11&gt;0,$B$11,F52)/100/365)^(365*YEARFRAC(D52,D53))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47453</v>
       </c>
       <c r="E53" s="23">
@@ -4543,47 +4251,41 @@
         <v>4.25</v>
       </c>
       <c r="G53" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H53" s="24">
-        <f>IF(J52&gt;0,
-      IF(YEARFRAC($B$7,D52)&gt;=$B$10,J52,H52)+N52+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D52)))*E52+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D52))))*YEARFRAC(D52,D53)+(YEARFRAC($B$7,D52)&lt;=$B$10)*$B$33*YEARFRAC(D52,D53),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I53" s="24">
-        <f>IF(YEARFRAC($B$7,D52)&lt;$B$10,I52+M52-$B$33*YEARFRAC(D52,D53)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J53" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K53" s="25">
-        <f>IF(G53&gt;0,G53*((1+IF($B$11&gt;0,$B$11,F53)/100/365)^(365*YEARFRAC(D53,D54))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L53" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M53" s="26">
-        <f>IF(YEARFRAC($B$7,D53)&lt;$B$10,
-       (I53+MIN(0,MAX(-$B$13,H53)))*((1+$B$32/100/365)^(365*YEARFRAC(D53,D54))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N53" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D53)&gt;=$B$10,J53,H53)*((1+IF($B$11&gt;0,$B$11,F53)/100/365)^(365*YEARFRAC(D53,D54))-1)&gt;0,
-IF(YEARFRAC($B$7,D53)&gt;=$B$10,J53,H53)*((1+IF($B$11&gt;0,$B$11,F53)/100/365)^(365*YEARFRAC(D53,D54))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47515</v>
       </c>
       <c r="E54" s="23">
@@ -4593,47 +4295,41 @@
         <v>4.25</v>
       </c>
       <c r="G54" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H54" s="24">
-        <f>IF(J53&gt;0,
-      IF(YEARFRAC($B$7,D53)&gt;=$B$10,J53,H53)+N53+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D53)))*E53+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D53))))*YEARFRAC(D53,D54)+(YEARFRAC($B$7,D53)&lt;=$B$10)*$B$33*YEARFRAC(D53,D54),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I54" s="24">
-        <f>IF(YEARFRAC($B$7,D53)&lt;$B$10,I53+M53-$B$33*YEARFRAC(D53,D54)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J54" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K54" s="25">
-        <f>IF(G54&gt;0,G54*((1+IF($B$11&gt;0,$B$11,F54)/100/365)^(365*YEARFRAC(D54,D55))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L54" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M54" s="26">
-        <f>IF(YEARFRAC($B$7,D54)&lt;$B$10,
-       (I54+MIN(0,MAX(-$B$13,H54)))*((1+$B$32/100/365)^(365*YEARFRAC(D54,D55))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N54" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D54)&gt;=$B$10,J54,H54)*((1+IF($B$11&gt;0,$B$11,F54)/100/365)^(365*YEARFRAC(D54,D55))-1)&gt;0,
-IF(YEARFRAC($B$7,D54)&gt;=$B$10,J54,H54)*((1+IF($B$11&gt;0,$B$11,F54)/100/365)^(365*YEARFRAC(D54,D55))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47574</v>
       </c>
       <c r="E55" s="23">
@@ -4643,47 +4339,41 @@
         <v>4.25</v>
       </c>
       <c r="G55" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H55" s="24">
-        <f>IF(J54&gt;0,
-      IF(YEARFRAC($B$7,D54)&gt;=$B$10,J54,H54)+N54+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D54)))*E54+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D54))))*YEARFRAC(D54,D55)+(YEARFRAC($B$7,D54)&lt;=$B$10)*$B$33*YEARFRAC(D54,D55),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I55" s="24">
-        <f>IF(YEARFRAC($B$7,D54)&lt;$B$10,I54+M54-$B$33*YEARFRAC(D54,D55)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J55" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K55" s="25">
-        <f>IF(G55&gt;0,G55*((1+IF($B$11&gt;0,$B$11,F55)/100/365)^(365*YEARFRAC(D55,D56))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L55" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M55" s="26">
-        <f>IF(YEARFRAC($B$7,D55)&lt;$B$10,
-       (I55+MIN(0,MAX(-$B$13,H55)))*((1+$B$32/100/365)^(365*YEARFRAC(D55,D56))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N55" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D55)&gt;=$B$10,J55,H55)*((1+IF($B$11&gt;0,$B$11,F55)/100/365)^(365*YEARFRAC(D55,D56))-1)&gt;0,
-IF(YEARFRAC($B$7,D55)&gt;=$B$10,J55,H55)*((1+IF($B$11&gt;0,$B$11,F55)/100/365)^(365*YEARFRAC(D55,D56))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47635</v>
       </c>
       <c r="E56" s="23">
@@ -4693,47 +4383,41 @@
         <v>4.25</v>
       </c>
       <c r="G56" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H56" s="24">
-        <f>IF(J55&gt;0,
-      IF(YEARFRAC($B$7,D55)&gt;=$B$10,J55,H55)+N55+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D55)))*E55+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D55))))*YEARFRAC(D55,D56)+(YEARFRAC($B$7,D55)&lt;=$B$10)*$B$33*YEARFRAC(D55,D56),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56" s="24">
-        <f>IF(YEARFRAC($B$7,D55)&lt;$B$10,I55+M55-$B$33*YEARFRAC(D55,D56)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J56" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K56" s="25">
-        <f>IF(G56&gt;0,G56*((1+IF($B$11&gt;0,$B$11,F56)/100/365)^(365*YEARFRAC(D56,D57))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L56" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M56" s="26">
-        <f>IF(YEARFRAC($B$7,D56)&lt;$B$10,
-       (I56+MIN(0,MAX(-$B$13,H56)))*((1+$B$32/100/365)^(365*YEARFRAC(D56,D57))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N56" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D56)&gt;=$B$10,J56,H56)*((1+IF($B$11&gt;0,$B$11,F56)/100/365)^(365*YEARFRAC(D56,D57))-1)&gt;0,
-IF(YEARFRAC($B$7,D56)&gt;=$B$10,J56,H56)*((1+IF($B$11&gt;0,$B$11,F56)/100/365)^(365*YEARFRAC(D56,D57))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47696</v>
       </c>
       <c r="E57" s="23">
@@ -4743,47 +4427,41 @@
         <v>4.25</v>
       </c>
       <c r="G57" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H57" s="24">
-        <f>IF(J56&gt;0,
-      IF(YEARFRAC($B$7,D56)&gt;=$B$10,J56,H56)+N56+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D56)))*E56+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D56))))*YEARFRAC(D56,D57)+(YEARFRAC($B$7,D56)&lt;=$B$10)*$B$33*YEARFRAC(D56,D57),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I57" s="24">
-        <f>IF(YEARFRAC($B$7,D56)&lt;$B$10,I56+M56-$B$33*YEARFRAC(D56,D57)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J57" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K57" s="25">
-        <f>IF(G57&gt;0,G57*((1+IF($B$11&gt;0,$B$11,F57)/100/365)^(365*YEARFRAC(D57,D58))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L57" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M57" s="26">
-        <f>IF(YEARFRAC($B$7,D57)&lt;$B$10,
-       (I57+MIN(0,MAX(-$B$13,H57)))*((1+$B$32/100/365)^(365*YEARFRAC(D57,D58))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N57" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D57)&gt;=$B$10,J57,H57)*((1+IF($B$11&gt;0,$B$11,F57)/100/365)^(365*YEARFRAC(D57,D58))-1)&gt;0,
-IF(YEARFRAC($B$7,D57)&gt;=$B$10,J57,H57)*((1+IF($B$11&gt;0,$B$11,F57)/100/365)^(365*YEARFRAC(D57,D58))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47757</v>
       </c>
       <c r="E58" s="23">
@@ -4793,47 +4471,41 @@
         <v>4.25</v>
       </c>
       <c r="G58" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H58" s="24">
-        <f>IF(J57&gt;0,
-      IF(YEARFRAC($B$7,D57)&gt;=$B$10,J57,H57)+N57+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D57)))*E57+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D57))))*YEARFRAC(D57,D58)+(YEARFRAC($B$7,D57)&lt;=$B$10)*$B$33*YEARFRAC(D57,D58),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I58" s="24">
-        <f>IF(YEARFRAC($B$7,D57)&lt;$B$10,I57+M57-$B$33*YEARFRAC(D57,D58)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J58" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K58" s="25">
-        <f>IF(G58&gt;0,G58*((1+IF($B$11&gt;0,$B$11,F58)/100/365)^(365*YEARFRAC(D58,D59))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L58" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M58" s="26">
-        <f>IF(YEARFRAC($B$7,D58)&lt;$B$10,
-       (I58+MIN(0,MAX(-$B$13,H58)))*((1+$B$32/100/365)^(365*YEARFRAC(D58,D59))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N58" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D58)&gt;=$B$10,J58,H58)*((1+IF($B$11&gt;0,$B$11,F58)/100/365)^(365*YEARFRAC(D58,D59))-1)&gt;0,
-IF(YEARFRAC($B$7,D58)&gt;=$B$10,J58,H58)*((1+IF($B$11&gt;0,$B$11,F58)/100/365)^(365*YEARFRAC(D58,D59))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47818</v>
       </c>
       <c r="E59" s="23">
@@ -4843,47 +4515,41 @@
         <v>4.25</v>
       </c>
       <c r="G59" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H59" s="24">
-        <f>IF(J58&gt;0,
-      IF(YEARFRAC($B$7,D58)&gt;=$B$10,J58,H58)+N58+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D58)))*E58+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D58))))*YEARFRAC(D58,D59)+(YEARFRAC($B$7,D58)&lt;=$B$10)*$B$33*YEARFRAC(D58,D59),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I59" s="24">
-        <f>IF(YEARFRAC($B$7,D58)&lt;$B$10,I58+M58-$B$33*YEARFRAC(D58,D59)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J59" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K59" s="25">
-        <f>IF(G59&gt;0,G59*((1+IF($B$11&gt;0,$B$11,F59)/100/365)^(365*YEARFRAC(D59,D60))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L59" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M59" s="26">
-        <f>IF(YEARFRAC($B$7,D59)&lt;$B$10,
-       (I59+MIN(0,MAX(-$B$13,H59)))*((1+$B$32/100/365)^(365*YEARFRAC(D59,D60))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N59" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D59)&gt;=$B$10,J59,H59)*((1+IF($B$11&gt;0,$B$11,F59)/100/365)^(365*YEARFRAC(D59,D60))-1)&gt;0,
-IF(YEARFRAC($B$7,D59)&gt;=$B$10,J59,H59)*((1+IF($B$11&gt;0,$B$11,F59)/100/365)^(365*YEARFRAC(D59,D60))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47880</v>
       </c>
       <c r="E60" s="23">
@@ -4893,47 +4559,41 @@
         <v>4.25</v>
       </c>
       <c r="G60" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H60" s="24">
-        <f>IF(J59&gt;0,
-      IF(YEARFRAC($B$7,D59)&gt;=$B$10,J59,H59)+N59+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D59)))*E59+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D59))))*YEARFRAC(D59,D60)+(YEARFRAC($B$7,D59)&lt;=$B$10)*$B$33*YEARFRAC(D59,D60),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I60" s="24">
-        <f>IF(YEARFRAC($B$7,D59)&lt;$B$10,I59+M59-$B$33*YEARFRAC(D59,D60)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J60" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K60" s="25">
-        <f>IF(G60&gt;0,G60*((1+IF($B$11&gt;0,$B$11,F60)/100/365)^(365*YEARFRAC(D60,D61))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L60" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M60" s="26">
-        <f>IF(YEARFRAC($B$7,D60)&lt;$B$10,
-       (I60+MIN(0,MAX(-$B$13,H60)))*((1+$B$32/100/365)^(365*YEARFRAC(D60,D61))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N60" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D60)&gt;=$B$10,J60,H60)*((1+IF($B$11&gt;0,$B$11,F60)/100/365)^(365*YEARFRAC(D60,D61))-1)&gt;0,
-IF(YEARFRAC($B$7,D60)&gt;=$B$10,J60,H60)*((1+IF($B$11&gt;0,$B$11,F60)/100/365)^(365*YEARFRAC(D60,D61))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>47939</v>
       </c>
       <c r="E61" s="23">
@@ -4943,47 +4603,41 @@
         <v>4.25</v>
       </c>
       <c r="G61" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H61" s="24">
-        <f>IF(J60&gt;0,
-      IF(YEARFRAC($B$7,D60)&gt;=$B$10,J60,H60)+N60+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D60)))*E60+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D60))))*YEARFRAC(D60,D61)+(YEARFRAC($B$7,D60)&lt;=$B$10)*$B$33*YEARFRAC(D60,D61),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I61" s="24">
-        <f>IF(YEARFRAC($B$7,D60)&lt;$B$10,I60+M60-$B$33*YEARFRAC(D60,D61)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J61" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K61" s="25">
-        <f>IF(G61&gt;0,G61*((1+IF($B$11&gt;0,$B$11,F61)/100/365)^(365*YEARFRAC(D61,D62))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L61" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M61" s="26">
-        <f>IF(YEARFRAC($B$7,D61)&lt;$B$10,
-       (I61+MIN(0,MAX(-$B$13,H61)))*((1+$B$32/100/365)^(365*YEARFRAC(D61,D62))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N61" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D61)&gt;=$B$10,J61,H61)*((1+IF($B$11&gt;0,$B$11,F61)/100/365)^(365*YEARFRAC(D61,D62))-1)&gt;0,
-IF(YEARFRAC($B$7,D61)&gt;=$B$10,J61,H61)*((1+IF($B$11&gt;0,$B$11,F61)/100/365)^(365*YEARFRAC(D61,D62))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48000</v>
       </c>
       <c r="E62" s="23">
@@ -4993,47 +4647,41 @@
         <v>4.25</v>
       </c>
       <c r="G62" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H62" s="24">
-        <f>IF(J61&gt;0,
-      IF(YEARFRAC($B$7,D61)&gt;=$B$10,J61,H61)+N61+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D61)))*E61+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D61))))*YEARFRAC(D61,D62)+(YEARFRAC($B$7,D61)&lt;=$B$10)*$B$33*YEARFRAC(D61,D62),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I62" s="24">
-        <f>IF(YEARFRAC($B$7,D61)&lt;$B$10,I61+M61-$B$33*YEARFRAC(D61,D62)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J62" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K62" s="25">
-        <f>IF(G62&gt;0,G62*((1+IF($B$11&gt;0,$B$11,F62)/100/365)^(365*YEARFRAC(D62,D63))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L62" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M62" s="26">
-        <f>IF(YEARFRAC($B$7,D62)&lt;$B$10,
-       (I62+MIN(0,MAX(-$B$13,H62)))*((1+$B$32/100/365)^(365*YEARFRAC(D62,D63))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N62" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D62)&gt;=$B$10,J62,H62)*((1+IF($B$11&gt;0,$B$11,F62)/100/365)^(365*YEARFRAC(D62,D63))-1)&gt;0,
-IF(YEARFRAC($B$7,D62)&gt;=$B$10,J62,H62)*((1+IF($B$11&gt;0,$B$11,F62)/100/365)^(365*YEARFRAC(D62,D63))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48061</v>
       </c>
       <c r="E63" s="23">
@@ -5043,47 +4691,41 @@
         <v>4.25</v>
       </c>
       <c r="G63" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H63" s="24">
-        <f>IF(J62&gt;0,
-      IF(YEARFRAC($B$7,D62)&gt;=$B$10,J62,H62)+N62+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D62)))*E62+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D62))))*YEARFRAC(D62,D63)+(YEARFRAC($B$7,D62)&lt;=$B$10)*$B$33*YEARFRAC(D62,D63),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I63" s="24">
-        <f>IF(YEARFRAC($B$7,D62)&lt;$B$10,I62+M62-$B$33*YEARFRAC(D62,D63)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J63" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K63" s="25">
-        <f>IF(G63&gt;0,G63*((1+IF($B$11&gt;0,$B$11,F63)/100/365)^(365*YEARFRAC(D63,D64))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L63" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M63" s="26">
-        <f>IF(YEARFRAC($B$7,D63)&lt;$B$10,
-       (I63+MIN(0,MAX(-$B$13,H63)))*((1+$B$32/100/365)^(365*YEARFRAC(D63,D64))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N63" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D63)&gt;=$B$10,J63,H63)*((1+IF($B$11&gt;0,$B$11,F63)/100/365)^(365*YEARFRAC(D63,D64))-1)&gt;0,
-IF(YEARFRAC($B$7,D63)&gt;=$B$10,J63,H63)*((1+IF($B$11&gt;0,$B$11,F63)/100/365)^(365*YEARFRAC(D63,D64))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48122</v>
       </c>
       <c r="E64" s="23">
@@ -5093,47 +4735,41 @@
         <v>4.25</v>
       </c>
       <c r="G64" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H64" s="24">
-        <f>IF(J63&gt;0,
-      IF(YEARFRAC($B$7,D63)&gt;=$B$10,J63,H63)+N63+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D63)))*E63+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D63))))*YEARFRAC(D63,D64)+(YEARFRAC($B$7,D63)&lt;=$B$10)*$B$33*YEARFRAC(D63,D64),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I64" s="24">
-        <f>IF(YEARFRAC($B$7,D63)&lt;$B$10,I63+M63-$B$33*YEARFRAC(D63,D64)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J64" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K64" s="25">
-        <f>IF(G64&gt;0,G64*((1+IF($B$11&gt;0,$B$11,F64)/100/365)^(365*YEARFRAC(D64,D65))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L64" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M64" s="26">
-        <f>IF(YEARFRAC($B$7,D64)&lt;$B$10,
-       (I64+MIN(0,MAX(-$B$13,H64)))*((1+$B$32/100/365)^(365*YEARFRAC(D64,D65))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N64" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D64)&gt;=$B$10,J64,H64)*((1+IF($B$11&gt;0,$B$11,F64)/100/365)^(365*YEARFRAC(D64,D65))-1)&gt;0,
-IF(YEARFRAC($B$7,D64)&gt;=$B$10,J64,H64)*((1+IF($B$11&gt;0,$B$11,F64)/100/365)^(365*YEARFRAC(D64,D65))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D65" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48183</v>
       </c>
       <c r="E65" s="23">
@@ -5143,47 +4779,41 @@
         <v>4.25</v>
       </c>
       <c r="G65" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H65" s="24">
-        <f>IF(J64&gt;0,
-      IF(YEARFRAC($B$7,D64)&gt;=$B$10,J64,H64)+N64+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D64)))*E64+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D64))))*YEARFRAC(D64,D65)+(YEARFRAC($B$7,D64)&lt;=$B$10)*$B$33*YEARFRAC(D64,D65),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I65" s="24">
-        <f>IF(YEARFRAC($B$7,D64)&lt;$B$10,I64+M64-$B$33*YEARFRAC(D64,D65)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J65" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K65" s="25">
-        <f>IF(G65&gt;0,G65*((1+IF($B$11&gt;0,$B$11,F65)/100/365)^(365*YEARFRAC(D65,D66))-1),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L65" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M65" s="26">
-        <f>IF(YEARFRAC($B$7,D65)&lt;$B$10,
-       (I65+MIN(0,MAX(-$B$13,H65)))*((1+$B$32/100/365)^(365*YEARFRAC(D65,D66))-1),
-       0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N65" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D65)&gt;=$B$10,J65,H65)*((1+IF($B$11&gt;0,$B$11,F65)/100/365)^(365*YEARFRAC(D65,D66))-1)&gt;0,
-IF(YEARFRAC($B$7,D65)&gt;=$B$10,J65,H65)*((1+IF($B$11&gt;0,$B$11,F65)/100/365)^(365*YEARFRAC(D65,D66))-1),
-0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48245</v>
       </c>
       <c r="E66" s="23">
@@ -5193,39 +4823,37 @@
         <v>4.25</v>
       </c>
       <c r="G66" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H66" s="24">
-        <f>IF(J65&gt;0,
-      IF(YEARFRAC($B$7,D65)&gt;=$B$10,J65,H65)+N65+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D65)))*E65+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D65))))*YEARFRAC(D65,D66)+(YEARFRAC($B$7,D65)&lt;=$B$10)*$B$33*YEARFRAC(D65,D66),
-      0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I66" s="24">
-        <f>IF(YEARFRAC($B$7,D65)&lt;$B$10,I65+M65-$B$33*YEARFRAC(D65,D66)*12, 0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J66" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K66" s="25">
-        <f>IF(G66&gt;0,G66*((1+IF($B$11&gt;0,$B$11,F66)/100/365)^(365*YEARFRAC(D66,D67))-1),0)</f>
+        <f t="shared" ref="K66:K85" si="18">IF(G66&gt;0,G66*((1+IF($B$11&gt;0,$B$11,F66)/100/365)^(365*YEARFRAC(D66,D67))-1),0)</f>
         <v>0</v>
       </c>
       <c r="L66" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M66" s="26">
-        <f>IF(YEARFRAC($B$7,D66)&lt;$B$10,
+        <f t="shared" ref="M66:M85" si="19">IF(YEARFRAC($B$7,D66)&lt;$B$10,
        (I66+MIN(0,MAX(-$B$13,H66)))*((1+$B$32/100/365)^(365*YEARFRAC(D66,D67))-1),
        0)</f>
         <v>0</v>
       </c>
       <c r="N66" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D66)&gt;=$B$10,J66,H66)*((1+IF($B$11&gt;0,$B$11,F66)/100/365)^(365*YEARFRAC(D66,D67))-1)&gt;0,
+        <f t="shared" ref="N66:N85" si="20">IF(IF(YEARFRAC($B$7,D66)&gt;=$B$10,J66,H66)*((1+IF($B$11&gt;0,$B$11,F66)/100/365)^(365*YEARFRAC(D66,D67))-1)&gt;0,
 IF(YEARFRAC($B$7,D66)&gt;=$B$10,J66,H66)*((1+IF($B$11&gt;0,$B$11,F66)/100/365)^(365*YEARFRAC(D66,D67))-1),
 0)</f>
         <v>0</v>
@@ -5233,7 +4861,7 @@
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D67" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>48305</v>
       </c>
       <c r="E67" s="23">
@@ -5243,47 +4871,43 @@
         <v>4.25</v>
       </c>
       <c r="G67" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H67" s="24">
-        <f>IF(J66&gt;0,
+        <f t="shared" ref="H67:H85" si="21">IF(J66&gt;0,
       IF(YEARFRAC($B$7,D66)&gt;=$B$10,J66,H66)+N66+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D66)))*E66+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D66))))*YEARFRAC(D66,D67)+(YEARFRAC($B$7,D66)&lt;=$B$10)*$B$33*YEARFRAC(D66,D67),
       0)</f>
         <v>0</v>
       </c>
       <c r="I67" s="24">
-        <f>IF(YEARFRAC($B$7,D66)&lt;$B$10,I66+M66-$B$33*YEARFRAC(D66,D67)*12, 0)</f>
+        <f t="shared" ref="I67:I85" si="22">IF(YEARFRAC($B$7,D66)&lt;$B$10,I66+M66-$B$33*YEARFRAC(D66,D67)*12, 0)</f>
         <v>0</v>
       </c>
       <c r="J67" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K67" s="25">
-        <f>IF(G67&gt;0,G67*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L67" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M67" s="26">
-        <f>IF(YEARFRAC($B$7,D67)&lt;$B$10,
-       (I67+MIN(0,MAX(-$B$13,H67)))*((1+$B$32/100/365)^(365*YEARFRAC(D67,D68))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N67" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D67)&gt;=$B$10,J67,H67)*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68))-1)&gt;0,
-IF(YEARFRAC($B$7,D67)&gt;=$B$10,J67,H67)*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D68" s="22">
-        <f t="shared" ref="D68:D85" si="8">EDATE(D67,$B$14)</f>
+        <f t="shared" ref="D68:D85" si="23">EDATE(D67,$B$14)</f>
         <v>48366</v>
       </c>
       <c r="E68" s="23">
@@ -5293,49 +4917,43 @@
         <v>4.25</v>
       </c>
       <c r="G68" s="58">
-        <f t="shared" ref="G68:G85" si="9">IF(G67*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67)))*E67+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67))))*YEARFRAC(D67,D68)&gt;0,
+        <f t="shared" ref="G68:G85" si="24">IF(G67*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67)))*E67+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67))))*YEARFRAC(D67,D68)&gt;0,
        G67*((1+IF($B$11&gt;0,$B$11,F67)/100/365)^(365*YEARFRAC(D67,D68)))+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67)))*E67+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67))))*YEARFRAC(D67,D68),
         0)</f>
         <v>0</v>
       </c>
       <c r="H68" s="24">
-        <f>IF(J67&gt;0,
-      IF(YEARFRAC($B$7,D67)&gt;=$B$10,J67,H67)+N67+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67)))*E67+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D67))))*YEARFRAC(D67,D68)+(YEARFRAC($B$7,D67)&lt;=$B$10)*$B$33*YEARFRAC(D67,D68),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I68" s="24">
-        <f>IF(YEARFRAC($B$7,D67)&lt;$B$10,I67+M67-$B$33*YEARFRAC(D67,D68)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J68" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K68" s="25">
-        <f>IF(G68&gt;0,G68*((1+IF($B$11&gt;0,$B$11,F68)/100/365)^(365*YEARFRAC(D68,D69))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L68" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M68" s="26">
-        <f>IF(YEARFRAC($B$7,D68)&lt;$B$10,
-       (I68+MIN(0,MAX(-$B$13,H68)))*((1+$B$32/100/365)^(365*YEARFRAC(D68,D69))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N68" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D68)&gt;=$B$10,J68,H68)*((1+IF($B$11&gt;0,$B$11,F68)/100/365)^(365*YEARFRAC(D68,D69))-1)&gt;0,
-IF(YEARFRAC($B$7,D68)&gt;=$B$10,J68,H68)*((1+IF($B$11&gt;0,$B$11,F68)/100/365)^(365*YEARFRAC(D68,D69))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D69" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48427</v>
       </c>
       <c r="E69" s="23">
@@ -5345,47 +4963,41 @@
         <v>4.25</v>
       </c>
       <c r="G69" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H69" s="24">
-        <f>IF(J68&gt;0,
-      IF(YEARFRAC($B$7,D68)&gt;=$B$10,J68,H68)+N68+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D68)))*E68+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D68))))*YEARFRAC(D68,D69)+(YEARFRAC($B$7,D68)&lt;=$B$10)*$B$33*YEARFRAC(D68,D69),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I69" s="24">
-        <f>IF(YEARFRAC($B$7,D68)&lt;$B$10,I68+M68-$B$33*YEARFRAC(D68,D69)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J69" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K69" s="25">
-        <f>IF(G69&gt;0,G69*((1+IF($B$11&gt;0,$B$11,F69)/100/365)^(365*YEARFRAC(D69,D70))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L69" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M69" s="26">
-        <f>IF(YEARFRAC($B$7,D69)&lt;$B$10,
-       (I69+MIN(0,MAX(-$B$13,H69)))*((1+$B$32/100/365)^(365*YEARFRAC(D69,D70))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N69" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D69)&gt;=$B$10,J69,H69)*((1+IF($B$11&gt;0,$B$11,F69)/100/365)^(365*YEARFRAC(D69,D70))-1)&gt;0,
-IF(YEARFRAC($B$7,D69)&gt;=$B$10,J69,H69)*((1+IF($B$11&gt;0,$B$11,F69)/100/365)^(365*YEARFRAC(D69,D70))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D70" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48488</v>
       </c>
       <c r="E70" s="23">
@@ -5395,47 +5007,41 @@
         <v>4.25</v>
       </c>
       <c r="G70" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H70" s="24">
-        <f>IF(J69&gt;0,
-      IF(YEARFRAC($B$7,D69)&gt;=$B$10,J69,H69)+N69+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D69)))*E69+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D69))))*YEARFRAC(D69,D70)+(YEARFRAC($B$7,D69)&lt;=$B$10)*$B$33*YEARFRAC(D69,D70),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I70" s="24">
-        <f>IF(YEARFRAC($B$7,D69)&lt;$B$10,I69+M69-$B$33*YEARFRAC(D69,D70)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J70" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K70" s="25">
-        <f>IF(G70&gt;0,G70*((1+IF($B$11&gt;0,$B$11,F70)/100/365)^(365*YEARFRAC(D70,D71))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L70" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M70" s="26">
-        <f>IF(YEARFRAC($B$7,D70)&lt;$B$10,
-       (I70+MIN(0,MAX(-$B$13,H70)))*((1+$B$32/100/365)^(365*YEARFRAC(D70,D71))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N70" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D70)&gt;=$B$10,J70,H70)*((1+IF($B$11&gt;0,$B$11,F70)/100/365)^(365*YEARFRAC(D70,D71))-1)&gt;0,
-IF(YEARFRAC($B$7,D70)&gt;=$B$10,J70,H70)*((1+IF($B$11&gt;0,$B$11,F70)/100/365)^(365*YEARFRAC(D70,D71))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D71" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48549</v>
       </c>
       <c r="E71" s="23">
@@ -5445,47 +5051,41 @@
         <v>4.25</v>
       </c>
       <c r="G71" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H71" s="24">
-        <f>IF(J70&gt;0,
-      IF(YEARFRAC($B$7,D70)&gt;=$B$10,J70,H70)+N70+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D70)))*E70+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D70))))*YEARFRAC(D70,D71)+(YEARFRAC($B$7,D70)&lt;=$B$10)*$B$33*YEARFRAC(D70,D71),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I71" s="24">
-        <f>IF(YEARFRAC($B$7,D70)&lt;$B$10,I70+M70-$B$33*YEARFRAC(D70,D71)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J71" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K71" s="25">
-        <f>IF(G71&gt;0,G71*((1+IF($B$11&gt;0,$B$11,F71)/100/365)^(365*YEARFRAC(D71,D72))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L71" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M71" s="26">
-        <f>IF(YEARFRAC($B$7,D71)&lt;$B$10,
-       (I71+MIN(0,MAX(-$B$13,H71)))*((1+$B$32/100/365)^(365*YEARFRAC(D71,D72))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N71" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D71)&gt;=$B$10,J71,H71)*((1+IF($B$11&gt;0,$B$11,F71)/100/365)^(365*YEARFRAC(D71,D72))-1)&gt;0,
-IF(YEARFRAC($B$7,D71)&gt;=$B$10,J71,H71)*((1+IF($B$11&gt;0,$B$11,F71)/100/365)^(365*YEARFRAC(D71,D72))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D72" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48611</v>
       </c>
       <c r="E72" s="23">
@@ -5495,47 +5095,41 @@
         <v>4.25</v>
       </c>
       <c r="G72" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H72" s="24">
-        <f>IF(J71&gt;0,
-      IF(YEARFRAC($B$7,D71)&gt;=$B$10,J71,H71)+N71+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D71)))*E71+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D71))))*YEARFRAC(D71,D72)+(YEARFRAC($B$7,D71)&lt;=$B$10)*$B$33*YEARFRAC(D71,D72),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I72" s="24">
-        <f>IF(YEARFRAC($B$7,D71)&lt;$B$10,I71+M71-$B$33*YEARFRAC(D71,D72)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J72" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K72" s="25">
-        <f>IF(G72&gt;0,G72*((1+IF($B$11&gt;0,$B$11,F72)/100/365)^(365*YEARFRAC(D72,D73))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L72" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M72" s="26">
-        <f>IF(YEARFRAC($B$7,D72)&lt;$B$10,
-       (I72+MIN(0,MAX(-$B$13,H72)))*((1+$B$32/100/365)^(365*YEARFRAC(D72,D73))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N72" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D72)&gt;=$B$10,J72,H72)*((1+IF($B$11&gt;0,$B$11,F72)/100/365)^(365*YEARFRAC(D72,D73))-1)&gt;0,
-IF(YEARFRAC($B$7,D72)&gt;=$B$10,J72,H72)*((1+IF($B$11&gt;0,$B$11,F72)/100/365)^(365*YEARFRAC(D72,D73))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D73" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48670</v>
       </c>
       <c r="E73" s="23">
@@ -5545,47 +5139,41 @@
         <v>4.25</v>
       </c>
       <c r="G73" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H73" s="24">
-        <f>IF(J72&gt;0,
-      IF(YEARFRAC($B$7,D72)&gt;=$B$10,J72,H72)+N72+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D72)))*E72+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D72))))*YEARFRAC(D72,D73)+(YEARFRAC($B$7,D72)&lt;=$B$10)*$B$33*YEARFRAC(D72,D73),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I73" s="24">
-        <f>IF(YEARFRAC($B$7,D72)&lt;$B$10,I72+M72-$B$33*YEARFRAC(D72,D73)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J73" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K73" s="25">
-        <f>IF(G73&gt;0,G73*((1+IF($B$11&gt;0,$B$11,F73)/100/365)^(365*YEARFRAC(D73,D74))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L73" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M73" s="26">
-        <f>IF(YEARFRAC($B$7,D73)&lt;$B$10,
-       (I73+MIN(0,MAX(-$B$13,H73)))*((1+$B$32/100/365)^(365*YEARFRAC(D73,D74))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N73" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D73)&gt;=$B$10,J73,H73)*((1+IF($B$11&gt;0,$B$11,F73)/100/365)^(365*YEARFRAC(D73,D74))-1)&gt;0,
-IF(YEARFRAC($B$7,D73)&gt;=$B$10,J73,H73)*((1+IF($B$11&gt;0,$B$11,F73)/100/365)^(365*YEARFRAC(D73,D74))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D74" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48731</v>
       </c>
       <c r="E74" s="23">
@@ -5595,47 +5183,41 @@
         <v>4.25</v>
       </c>
       <c r="G74" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H74" s="24">
-        <f>IF(J73&gt;0,
-      IF(YEARFRAC($B$7,D73)&gt;=$B$10,J73,H73)+N73+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D73)))*E73+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D73))))*YEARFRAC(D73,D74)+(YEARFRAC($B$7,D73)&lt;=$B$10)*$B$33*YEARFRAC(D73,D74),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I74" s="24">
-        <f>IF(YEARFRAC($B$7,D73)&lt;$B$10,I73+M73-$B$33*YEARFRAC(D73,D74)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J74" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K74" s="25">
-        <f>IF(G74&gt;0,G74*((1+IF($B$11&gt;0,$B$11,F74)/100/365)^(365*YEARFRAC(D74,D75))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L74" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M74" s="26">
-        <f>IF(YEARFRAC($B$7,D74)&lt;$B$10,
-       (I74+MIN(0,MAX(-$B$13,H74)))*((1+$B$32/100/365)^(365*YEARFRAC(D74,D75))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N74" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D74)&gt;=$B$10,J74,H74)*((1+IF($B$11&gt;0,$B$11,F74)/100/365)^(365*YEARFRAC(D74,D75))-1)&gt;0,
-IF(YEARFRAC($B$7,D74)&gt;=$B$10,J74,H74)*((1+IF($B$11&gt;0,$B$11,F74)/100/365)^(365*YEARFRAC(D74,D75))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D75" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48792</v>
       </c>
       <c r="E75" s="23">
@@ -5645,47 +5227,41 @@
         <v>4.25</v>
       </c>
       <c r="G75" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H75" s="24">
-        <f>IF(J74&gt;0,
-      IF(YEARFRAC($B$7,D74)&gt;=$B$10,J74,H74)+N74+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D74)))*E74+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D74))))*YEARFRAC(D74,D75)+(YEARFRAC($B$7,D74)&lt;=$B$10)*$B$33*YEARFRAC(D74,D75),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I75" s="24">
-        <f>IF(YEARFRAC($B$7,D74)&lt;$B$10,I74+M74-$B$33*YEARFRAC(D74,D75)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J75" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K75" s="25">
-        <f>IF(G75&gt;0,G75*((1+IF($B$11&gt;0,$B$11,F75)/100/365)^(365*YEARFRAC(D75,D76))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L75" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M75" s="26">
-        <f>IF(YEARFRAC($B$7,D75)&lt;$B$10,
-       (I75+MIN(0,MAX(-$B$13,H75)))*((1+$B$32/100/365)^(365*YEARFRAC(D75,D76))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N75" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D75)&gt;=$B$10,J75,H75)*((1+IF($B$11&gt;0,$B$11,F75)/100/365)^(365*YEARFRAC(D75,D76))-1)&gt;0,
-IF(YEARFRAC($B$7,D75)&gt;=$B$10,J75,H75)*((1+IF($B$11&gt;0,$B$11,F75)/100/365)^(365*YEARFRAC(D75,D76))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D76" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48853</v>
       </c>
       <c r="E76" s="23">
@@ -5695,47 +5271,41 @@
         <v>4.25</v>
       </c>
       <c r="G76" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H76" s="24">
-        <f>IF(J75&gt;0,
-      IF(YEARFRAC($B$7,D75)&gt;=$B$10,J75,H75)+N75+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D75)))*E75+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D75))))*YEARFRAC(D75,D76)+(YEARFRAC($B$7,D75)&lt;=$B$10)*$B$33*YEARFRAC(D75,D76),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I76" s="24">
-        <f>IF(YEARFRAC($B$7,D75)&lt;$B$10,I75+M75-$B$33*YEARFRAC(D75,D76)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J76" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K76" s="25">
-        <f>IF(G76&gt;0,G76*((1+IF($B$11&gt;0,$B$11,F76)/100/365)^(365*YEARFRAC(D76,D77))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L76" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M76" s="26">
-        <f>IF(YEARFRAC($B$7,D76)&lt;$B$10,
-       (I76+MIN(0,MAX(-$B$13,H76)))*((1+$B$32/100/365)^(365*YEARFRAC(D76,D77))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N76" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D76)&gt;=$B$10,J76,H76)*((1+IF($B$11&gt;0,$B$11,F76)/100/365)^(365*YEARFRAC(D76,D77))-1)&gt;0,
-IF(YEARFRAC($B$7,D76)&gt;=$B$10,J76,H76)*((1+IF($B$11&gt;0,$B$11,F76)/100/365)^(365*YEARFRAC(D76,D77))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D77" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48914</v>
       </c>
       <c r="E77" s="23">
@@ -5745,47 +5315,41 @@
         <v>4.25</v>
       </c>
       <c r="G77" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H77" s="24">
-        <f>IF(J76&gt;0,
-      IF(YEARFRAC($B$7,D76)&gt;=$B$10,J76,H76)+N76+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D76)))*E76+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D76))))*YEARFRAC(D76,D77)+(YEARFRAC($B$7,D76)&lt;=$B$10)*$B$33*YEARFRAC(D76,D77),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I77" s="24">
-        <f>IF(YEARFRAC($B$7,D76)&lt;$B$10,I76+M76-$B$33*YEARFRAC(D76,D77)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J77" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K77" s="25">
-        <f>IF(G77&gt;0,G77*((1+IF($B$11&gt;0,$B$11,F77)/100/365)^(365*YEARFRAC(D77,D78))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L77" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M77" s="26">
-        <f>IF(YEARFRAC($B$7,D77)&lt;$B$10,
-       (I77+MIN(0,MAX(-$B$13,H77)))*((1+$B$32/100/365)^(365*YEARFRAC(D77,D78))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N77" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D77)&gt;=$B$10,J77,H77)*((1+IF($B$11&gt;0,$B$11,F77)/100/365)^(365*YEARFRAC(D77,D78))-1)&gt;0,
-IF(YEARFRAC($B$7,D77)&gt;=$B$10,J77,H77)*((1+IF($B$11&gt;0,$B$11,F77)/100/365)^(365*YEARFRAC(D77,D78))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D78" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>48976</v>
       </c>
       <c r="E78" s="23">
@@ -5795,47 +5359,41 @@
         <v>4.25</v>
       </c>
       <c r="G78" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H78" s="24">
-        <f>IF(J77&gt;0,
-      IF(YEARFRAC($B$7,D77)&gt;=$B$10,J77,H77)+N77+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D77)))*E77+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D77))))*YEARFRAC(D77,D78)+(YEARFRAC($B$7,D77)&lt;=$B$10)*$B$33*YEARFRAC(D77,D78),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I78" s="24">
-        <f>IF(YEARFRAC($B$7,D77)&lt;$B$10,I77+M77-$B$33*YEARFRAC(D77,D78)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J78" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K78" s="25">
-        <f>IF(G78&gt;0,G78*((1+IF($B$11&gt;0,$B$11,F78)/100/365)^(365*YEARFRAC(D78,D79))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L78" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M78" s="26">
-        <f>IF(YEARFRAC($B$7,D78)&lt;$B$10,
-       (I78+MIN(0,MAX(-$B$13,H78)))*((1+$B$32/100/365)^(365*YEARFRAC(D78,D79))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N78" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D78)&gt;=$B$10,J78,H78)*((1+IF($B$11&gt;0,$B$11,F78)/100/365)^(365*YEARFRAC(D78,D79))-1)&gt;0,
-IF(YEARFRAC($B$7,D78)&gt;=$B$10,J78,H78)*((1+IF($B$11&gt;0,$B$11,F78)/100/365)^(365*YEARFRAC(D78,D79))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D79" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49035</v>
       </c>
       <c r="E79" s="23">
@@ -5845,47 +5403,41 @@
         <v>4.25</v>
       </c>
       <c r="G79" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H79" s="24">
-        <f>IF(J78&gt;0,
-      IF(YEARFRAC($B$7,D78)&gt;=$B$10,J78,H78)+N78+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D78)))*E78+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D78))))*YEARFRAC(D78,D79)+(YEARFRAC($B$7,D78)&lt;=$B$10)*$B$33*YEARFRAC(D78,D79),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I79" s="24">
-        <f>IF(YEARFRAC($B$7,D78)&lt;$B$10,I78+M78-$B$33*YEARFRAC(D78,D79)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J79" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K79" s="25">
-        <f>IF(G79&gt;0,G79*((1+IF($B$11&gt;0,$B$11,F79)/100/365)^(365*YEARFRAC(D79,D80))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L79" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M79" s="26">
-        <f>IF(YEARFRAC($B$7,D79)&lt;$B$10,
-       (I79+MIN(0,MAX(-$B$13,H79)))*((1+$B$32/100/365)^(365*YEARFRAC(D79,D80))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N79" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D79)&gt;=$B$10,J79,H79)*((1+IF($B$11&gt;0,$B$11,F79)/100/365)^(365*YEARFRAC(D79,D80))-1)&gt;0,
-IF(YEARFRAC($B$7,D79)&gt;=$B$10,J79,H79)*((1+IF($B$11&gt;0,$B$11,F79)/100/365)^(365*YEARFRAC(D79,D80))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D80" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49096</v>
       </c>
       <c r="E80" s="23">
@@ -5895,47 +5447,41 @@
         <v>4.25</v>
       </c>
       <c r="G80" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H80" s="24">
-        <f>IF(J79&gt;0,
-      IF(YEARFRAC($B$7,D79)&gt;=$B$10,J79,H79)+N79+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D79)))*E79+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D79))))*YEARFRAC(D79,D80)+(YEARFRAC($B$7,D79)&lt;=$B$10)*$B$33*YEARFRAC(D79,D80),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I80" s="24">
-        <f>IF(YEARFRAC($B$7,D79)&lt;$B$10,I79+M79-$B$33*YEARFRAC(D79,D80)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J80" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K80" s="25">
-        <f>IF(G80&gt;0,G80*((1+IF($B$11&gt;0,$B$11,F80)/100/365)^(365*YEARFRAC(D80,D81))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L80" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M80" s="26">
-        <f>IF(YEARFRAC($B$7,D80)&lt;$B$10,
-       (I80+MIN(0,MAX(-$B$13,H80)))*((1+$B$32/100/365)^(365*YEARFRAC(D80,D81))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N80" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D80)&gt;=$B$10,J80,H80)*((1+IF($B$11&gt;0,$B$11,F80)/100/365)^(365*YEARFRAC(D80,D81))-1)&gt;0,
-IF(YEARFRAC($B$7,D80)&gt;=$B$10,J80,H80)*((1+IF($B$11&gt;0,$B$11,F80)/100/365)^(365*YEARFRAC(D80,D81))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D81" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49157</v>
       </c>
       <c r="E81" s="23">
@@ -5945,47 +5491,41 @@
         <v>4.25</v>
       </c>
       <c r="G81" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H81" s="24">
-        <f>IF(J80&gt;0,
-      IF(YEARFRAC($B$7,D80)&gt;=$B$10,J80,H80)+N80+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D80)))*E80+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D80))))*YEARFRAC(D80,D81)+(YEARFRAC($B$7,D80)&lt;=$B$10)*$B$33*YEARFRAC(D80,D81),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I81" s="24">
-        <f>IF(YEARFRAC($B$7,D80)&lt;$B$10,I80+M80-$B$33*YEARFRAC(D80,D81)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J81" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K81" s="25">
-        <f>IF(G81&gt;0,G81*((1+IF($B$11&gt;0,$B$11,F81)/100/365)^(365*YEARFRAC(D81,D82))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L81" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M81" s="26">
-        <f>IF(YEARFRAC($B$7,D81)&lt;$B$10,
-       (I81+MIN(0,MAX(-$B$13,H81)))*((1+$B$32/100/365)^(365*YEARFRAC(D81,D82))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N81" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D81)&gt;=$B$10,J81,H81)*((1+IF($B$11&gt;0,$B$11,F81)/100/365)^(365*YEARFRAC(D81,D82))-1)&gt;0,
-IF(YEARFRAC($B$7,D81)&gt;=$B$10,J81,H81)*((1+IF($B$11&gt;0,$B$11,F81)/100/365)^(365*YEARFRAC(D81,D82))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D82" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49218</v>
       </c>
       <c r="E82" s="23">
@@ -5995,47 +5535,41 @@
         <v>4.25</v>
       </c>
       <c r="G82" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H82" s="24">
-        <f>IF(J81&gt;0,
-      IF(YEARFRAC($B$7,D81)&gt;=$B$10,J81,H81)+N81+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D81)))*E81+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D81))))*YEARFRAC(D81,D82)+(YEARFRAC($B$7,D81)&lt;=$B$10)*$B$33*YEARFRAC(D81,D82),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I82" s="24">
-        <f>IF(YEARFRAC($B$7,D81)&lt;$B$10,I81+M81-$B$33*YEARFRAC(D81,D82)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J82" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K82" s="25">
-        <f>IF(G82&gt;0,G82*((1+IF($B$11&gt;0,$B$11,F82)/100/365)^(365*YEARFRAC(D82,D83))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L82" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M82" s="26">
-        <f>IF(YEARFRAC($B$7,D82)&lt;$B$10,
-       (I82+MIN(0,MAX(-$B$13,H82)))*((1+$B$32/100/365)^(365*YEARFRAC(D82,D83))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N82" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D82)&gt;=$B$10,J82,H82)*((1+IF($B$11&gt;0,$B$11,F82)/100/365)^(365*YEARFRAC(D82,D83))-1)&gt;0,
-IF(YEARFRAC($B$7,D82)&gt;=$B$10,J82,H82)*((1+IF($B$11&gt;0,$B$11,F82)/100/365)^(365*YEARFRAC(D82,D83))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D83" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49279</v>
       </c>
       <c r="E83" s="23">
@@ -6045,47 +5579,41 @@
         <v>4.25</v>
       </c>
       <c r="G83" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H83" s="24">
-        <f>IF(J82&gt;0,
-      IF(YEARFRAC($B$7,D82)&gt;=$B$10,J82,H82)+N82+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D82)))*E82+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D82))))*YEARFRAC(D82,D83)+(YEARFRAC($B$7,D82)&lt;=$B$10)*$B$33*YEARFRAC(D82,D83),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I83" s="24">
-        <f>IF(YEARFRAC($B$7,D82)&lt;$B$10,I82+M82-$B$33*YEARFRAC(D82,D83)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J83" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K83" s="25">
-        <f>IF(G83&gt;0,G83*((1+IF($B$11&gt;0,$B$11,F83)/100/365)^(365*YEARFRAC(D83,D84))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L83" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M83" s="26">
-        <f>IF(YEARFRAC($B$7,D83)&lt;$B$10,
-       (I83+MIN(0,MAX(-$B$13,H83)))*((1+$B$32/100/365)^(365*YEARFRAC(D83,D84))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N83" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D83)&gt;=$B$10,J83,H83)*((1+IF($B$11&gt;0,$B$11,F83)/100/365)^(365*YEARFRAC(D83,D84))-1)&gt;0,
-IF(YEARFRAC($B$7,D83)&gt;=$B$10,J83,H83)*((1+IF($B$11&gt;0,$B$11,F83)/100/365)^(365*YEARFRAC(D83,D84))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D84" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49341</v>
       </c>
       <c r="E84" s="23">
@@ -6095,47 +5623,41 @@
         <v>4.25</v>
       </c>
       <c r="G84" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H84" s="24">
-        <f>IF(J83&gt;0,
-      IF(YEARFRAC($B$7,D83)&gt;=$B$10,J83,H83)+N83+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D83)))*E83+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D83))))*YEARFRAC(D83,D84)+(YEARFRAC($B$7,D83)&lt;=$B$10)*$B$33*YEARFRAC(D83,D84),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I84" s="24">
-        <f>IF(YEARFRAC($B$7,D83)&lt;$B$10,I83+M83-$B$33*YEARFRAC(D83,D84)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K84" s="25">
-        <f>IF(G84&gt;0,G84*((1+IF($B$11&gt;0,$B$11,F84)/100/365)^(365*YEARFRAC(D84,D85))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L84" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M84" s="26">
-        <f>IF(YEARFRAC($B$7,D84)&lt;$B$10,
-       (I84+MIN(0,MAX(-$B$13,H84)))*((1+$B$32/100/365)^(365*YEARFRAC(D84,D85))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N84" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D84)&gt;=$B$10,J84,H84)*((1+IF($B$11&gt;0,$B$11,F84)/100/365)^(365*YEARFRAC(D84,D85))-1)&gt;0,
-IF(YEARFRAC($B$7,D84)&gt;=$B$10,J84,H84)*((1+IF($B$11&gt;0,$B$11,F84)/100/365)^(365*YEARFRAC(D84,D85))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D85" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="23"/>
         <v>49400</v>
       </c>
       <c r="E85" s="23">
@@ -6145,41 +5667,35 @@
         <v>4.25</v>
       </c>
       <c r="G85" s="58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H85" s="24">
-        <f>IF(J84&gt;0,
-      IF(YEARFRAC($B$7,D84)&gt;=$B$10,J84,H84)+N84+($B$6-$B$2*((1+$B$4/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D84)))*E84+$B$3*((1+$B$5/100)^_xlfn.FLOOR.MATH(YEARFRAC($B$7,D84))))*YEARFRAC(D84,D85)+(YEARFRAC($B$7,D84)&lt;=$B$10)*$B$33*YEARFRAC(D84,D85),
-      0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I85" s="24">
-        <f>IF(YEARFRAC($B$7,D84)&lt;$B$10,I84+M84-$B$33*YEARFRAC(D84,D85)*12, 0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J85" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K85" s="25">
-        <f>IF(G85&gt;0,G85*((1+IF($B$11&gt;0,$B$11,F85)/100/365)^(365*YEARFRAC(D85,D86))-1),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L85" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M85" s="26">
-        <f>IF(YEARFRAC($B$7,D85)&lt;$B$10,
-       (I85+MIN(0,MAX(-$B$13,H85)))*((1+$B$32/100/365)^(365*YEARFRAC(D85,D86))-1),
-       0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N85" s="27">
-        <f>IF(IF(YEARFRAC($B$7,D85)&gt;=$B$10,J85,H85)*((1+IF($B$11&gt;0,$B$11,F85)/100/365)^(365*YEARFRAC(D85,D86))-1)&gt;0,
-IF(YEARFRAC($B$7,D85)&gt;=$B$10,J85,H85)*((1+IF($B$11&gt;0,$B$11,F85)/100/365)^(365*YEARFRAC(D85,D86))-1),
-0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6213,36 +5729,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="216" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
+      <c r="A2" s="67"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="67"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="67"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="67"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="67"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
+      <c r="A7" s="67"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="67"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="67"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
